--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="266">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,64 +43,754 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>18030100304</t>
-  </si>
-  <si>
-    <t>18010119325</t>
-  </si>
-  <si>
-    <t>18030102457</t>
-  </si>
-  <si>
-    <t>18030001747</t>
-  </si>
-  <si>
-    <t>Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t>Elias Medical Hall</t>
-  </si>
-  <si>
-    <t>Khyem Pharmacy</t>
-  </si>
-  <si>
-    <t>Holy Crescent Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raipura Hospita Gate Raipura                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station Road Narshingdi                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadar Hospital B Baria                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorur Hater More Madhabdi                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-388934     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389449     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389567     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-389586     </t>
+    <t>90000017191</t>
+  </si>
+  <si>
+    <t>44019002642</t>
+  </si>
+  <si>
+    <t>44031000110</t>
+  </si>
+  <si>
+    <t>44019003700</t>
+  </si>
+  <si>
+    <t>44019000037</t>
+  </si>
+  <si>
+    <t>44019001183</t>
+  </si>
+  <si>
+    <t>44031106944</t>
+  </si>
+  <si>
+    <t>44019002303</t>
+  </si>
+  <si>
+    <t>44019000802</t>
+  </si>
+  <si>
+    <t>44037800943</t>
+  </si>
+  <si>
+    <t>4401900206</t>
+  </si>
+  <si>
+    <t>44019002630</t>
+  </si>
+  <si>
+    <t>44037800819</t>
+  </si>
+  <si>
+    <t>44031101821</t>
+  </si>
+  <si>
+    <t>90000009207</t>
+  </si>
+  <si>
+    <t>44031000004</t>
+  </si>
+  <si>
+    <t>44019000437</t>
+  </si>
+  <si>
+    <t>44019000080</t>
+  </si>
+  <si>
+    <t>44019000314</t>
+  </si>
+  <si>
+    <t>44037801134</t>
+  </si>
+  <si>
+    <t>4406114691</t>
+  </si>
+  <si>
+    <t>44019004065</t>
+  </si>
+  <si>
+    <t>44031002813</t>
+  </si>
+  <si>
+    <t>90000003295</t>
+  </si>
+  <si>
+    <t>44037801763</t>
+  </si>
+  <si>
+    <t>44019003170</t>
+  </si>
+  <si>
+    <t>4401900769</t>
+  </si>
+  <si>
+    <t>90000041675</t>
+  </si>
+  <si>
+    <t>44031100420</t>
+  </si>
+  <si>
+    <t>44037799564</t>
+  </si>
+  <si>
+    <t>44031101093</t>
+  </si>
+  <si>
+    <t>44019002054</t>
+  </si>
+  <si>
+    <t>44019001055</t>
+  </si>
+  <si>
+    <t>44019001078</t>
+  </si>
+  <si>
+    <t>44037801057</t>
+  </si>
+  <si>
+    <t>44031107361</t>
+  </si>
+  <si>
+    <t>44019000739</t>
+  </si>
+  <si>
+    <t>44037801422</t>
+  </si>
+  <si>
+    <t>44037801484</t>
+  </si>
+  <si>
+    <t>44019002282</t>
+  </si>
+  <si>
+    <t>44019001195</t>
+  </si>
+  <si>
+    <t>44019000258</t>
+  </si>
+  <si>
+    <t>44019001905</t>
+  </si>
+  <si>
+    <t>44019008675</t>
+  </si>
+  <si>
+    <t>44019004816</t>
+  </si>
+  <si>
+    <t>44019004679</t>
+  </si>
+  <si>
+    <t>44019004734</t>
+  </si>
+  <si>
+    <t>90000019818</t>
+  </si>
+  <si>
+    <t>44019004028</t>
+  </si>
+  <si>
+    <t>90000003859</t>
+  </si>
+  <si>
+    <t>4406114661</t>
+  </si>
+  <si>
+    <t>44031100874</t>
+  </si>
+  <si>
+    <t>4401900159</t>
+  </si>
+  <si>
+    <t>44019001332</t>
+  </si>
+  <si>
+    <t>4406114540</t>
+  </si>
+  <si>
+    <t>4406114599</t>
+  </si>
+  <si>
+    <t>Taj Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Asim</t>
+  </si>
+  <si>
+    <t>Dr Asraful</t>
+  </si>
+  <si>
+    <t>Shaikh Pharmacy</t>
+  </si>
+  <si>
+    <t>Anuska Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Pharmacy</t>
+  </si>
+  <si>
+    <t>Beauty Pharmacy</t>
+  </si>
+  <si>
+    <t>Sathi Shasthya Seba Clinic</t>
+  </si>
+  <si>
+    <t>Mukta Trishna Pharmacy</t>
+  </si>
+  <si>
+    <t>Shaik Pharmacy</t>
+  </si>
+  <si>
+    <t>Majid Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Touhidul Islam</t>
+  </si>
+  <si>
+    <t>Dr Volanath Paul</t>
+  </si>
+  <si>
+    <t>Ety Pharmacy</t>
+  </si>
+  <si>
+    <t>Satkhira Troma Center</t>
+  </si>
+  <si>
+    <t>Satata Pharmacy</t>
+  </si>
+  <si>
+    <t>Kohinoor Pharmacy</t>
+  </si>
+  <si>
+    <t>Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Saleha Medical Hall</t>
+  </si>
+  <si>
+    <t>Matree Medical Hall</t>
+  </si>
+  <si>
+    <t>Sohel Pharmacy</t>
+  </si>
+  <si>
+    <t>Urme Pharmacy</t>
+  </si>
+  <si>
+    <t>New Hasan Medical Hall</t>
+  </si>
+  <si>
+    <t>Rashida Pharmacy</t>
+  </si>
+  <si>
+    <t>Shefa Pharmacy</t>
+  </si>
+  <si>
+    <t>Kapotakkha Pharmacy</t>
+  </si>
+  <si>
+    <t>Niramoy Clinic &amp; Diagonostic C</t>
+  </si>
+  <si>
+    <t>Farid Medical Hall</t>
+  </si>
+  <si>
+    <t>Sufia Pharmacy</t>
+  </si>
+  <si>
+    <t>National Pharmacy</t>
+  </si>
+  <si>
+    <t>Shamim Pharmacy</t>
+  </si>
+  <si>
+    <t>Modern Medicine</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Shariear Pharmacy</t>
+  </si>
+  <si>
+    <t>Echamoti Drug House</t>
+  </si>
+  <si>
+    <t>United Medical Store</t>
+  </si>
+  <si>
+    <t>Satkhira Drug House</t>
+  </si>
+  <si>
+    <t>Ahasan Drug House</t>
+  </si>
+  <si>
+    <t>Seba Clinic</t>
+  </si>
+  <si>
+    <t>Dr Rafiqul Islam</t>
+  </si>
+  <si>
+    <t>Aziz Medico</t>
+  </si>
+  <si>
+    <t>Asha Pharmacy</t>
+  </si>
+  <si>
+    <t>Ibn Sina Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Prathomic Sastho Seba Kendro</t>
+  </si>
+  <si>
+    <t>Fatama Pharmacy</t>
+  </si>
+  <si>
+    <t>Jeba Pharmacy</t>
+  </si>
+  <si>
+    <t>Suraksha Medical Hall</t>
+  </si>
+  <si>
+    <t>Srabon Medical Holl</t>
+  </si>
+  <si>
+    <t>Leon Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Medical</t>
+  </si>
+  <si>
+    <t>Anik Pharmacy</t>
+  </si>
+  <si>
+    <t>Iran Medical Hall</t>
+  </si>
+  <si>
+    <t>Rafa Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Joydab Adhikari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollarhat,Krishnanagar,Shyamnagor,Satkhira                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhanagor Bazar Lohagara 01718136400 Narail                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shyamnagar                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C And B Stand Lohagara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taltola Bazar Nowapara                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manikganj Bazar Lohagara Narail                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalta Bazar Kaligonj Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chachra More Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimtola Bazar Chowgacha Jessore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaik Bari Chadnimukha Gabura Shayamnagor                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Dighi Vatpara Noapara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotakol Bazar Lohagara Narail                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhatshala Parulia Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetkhali Shaymnagar Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narikle Tola More,Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polashpole Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chutipur Bazar Jessore                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowgacha Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhikorgacha Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patkelghata Bazar Patkelghata Khulna MD Mehedi Hassan       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganna Bazar Kaligonj Jhenaidah                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherpool Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porar Bazar Patkelghata Satkhira                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar,Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathonda Bazer Satkhira                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M M Ali Road Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lions Hospital Hustola Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahid Kazol Saroni,Polashpole,Satkhira                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowabiki Shamnagar Satkhira                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munsur Sardar Gareg Munsigonj Satkhira                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolta Bazar Kaligonj Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharmatalar More Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobra Bazar Narail                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhangura Bazar, Dholga More, Narail                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadakati Bazar Budhata Satkhira                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town Sripur Debhata Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purapara Chowgasa Jessore                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongshipur Bazar Shayamnagar                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khorori Bazar Narail Mobile 01720929616                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuria Bazar Digholia Road Lohagara                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisutala Bazar Moheshpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Jesore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garochora Bazar Narail                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpara Bazar Chowhacha Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rail Gate Jessore C O Dr Tipu Sultan                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satkhira                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Noapara                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baganshara Bazar,Sharsha,Jessore                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottipur Bazar Kaligonj Kaligonj                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baganchra Sharsha Jessore                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO Doctors Clinic Hospital Road Nowapara                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talshar Bazar Kaligonj JHD                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurar Bazar Kaligonj Jhenaidha                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS104                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466183     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465009     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465990     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466018     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465986     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465758     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465232     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466060     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465007     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465748     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465699     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466522     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466495     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-458504     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466536     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466623     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466467     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466248     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466588     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465789     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466283     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465735     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459173     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467140     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466928     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466989     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466809     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467364     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466692     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467322     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466728     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467037     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466665     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466792     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467020     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467307     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466682     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467103     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-458929     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466705     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467114     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466626     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459656     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467523     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467700     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467733     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467558     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467442     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467666     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467556     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467734     </t>
   </si>
   <si>
     <t>19 Sep 2020</t>
@@ -109,7 +799,19 @@
     <t>20 Sep 2020</t>
   </si>
   <si>
+    <t>05 Sep 2020</t>
+  </si>
+  <si>
+    <t>06 Sep 2020</t>
+  </si>
+  <si>
     <t>21 Sep 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>22 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -467,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +1224,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -543,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9417.5</v>
+        <v>19403.15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -554,28 +1256,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6969.71</v>
+        <v>15222.91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -586,28 +1288,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>34687.8</v>
+        <v>15186.18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -618,28 +1320,1756 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15123.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>14062.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12440.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>12098.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>12063.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>12054.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>12010.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8471.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7112.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3413.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>30082.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>30030.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>24917.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>21361.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>19621.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>14963.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>12170.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>12167.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>10067.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>7954.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>5145.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>5104.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>5061.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>7392.44</v>
+      <c r="J29">
+        <v>67199.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>30151.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>24748.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>20030.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>19405.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>15163.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>12079.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>12021.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>12014.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>11827.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>11803.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>10459.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>8145.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>8134.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>263</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>7453.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>7072.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" t="s">
+        <v>263</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>6056.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>5721.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>5139.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>5047.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>4065.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50">
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>51191.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>265</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>25954.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" t="s">
+        <v>265</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>15140.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" t="s">
+        <v>265</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>12162.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" t="s">
+        <v>265</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>12087.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" t="s">
+        <v>265</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>8262.540000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56" t="s">
+        <v>265</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>7993.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" t="s">
+        <v>265</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>7260.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>6170.78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" t="s">
+        <v>265</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>5102.38</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,277 +43,616 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010124115</t>
-  </si>
-  <si>
-    <t>12010111044</t>
-  </si>
-  <si>
-    <t>12010507910</t>
-  </si>
-  <si>
-    <t>12010506279</t>
-  </si>
-  <si>
-    <t>12010509931</t>
-  </si>
-  <si>
-    <t>12010506801</t>
-  </si>
-  <si>
-    <t>12010511138</t>
-  </si>
-  <si>
-    <t>12010146733</t>
-  </si>
-  <si>
-    <t>12010511290</t>
-  </si>
-  <si>
-    <t>12013131363</t>
-  </si>
-  <si>
-    <t>12010119102</t>
-  </si>
-  <si>
-    <t>12010503254</t>
-  </si>
-  <si>
-    <t>12010139784</t>
-  </si>
-  <si>
-    <t>12010510072</t>
-  </si>
-  <si>
-    <t>12010121022</t>
-  </si>
-  <si>
-    <t>12010511196</t>
-  </si>
-  <si>
-    <t>12010508615</t>
-  </si>
-  <si>
-    <t>Momotaz Pharmacy</t>
-  </si>
-  <si>
-    <t>Nurunnahar Pharmacy</t>
-  </si>
-  <si>
-    <t>Belal Medical Hall</t>
-  </si>
-  <si>
-    <t>Kidney Foundation</t>
-  </si>
-  <si>
-    <t>Ma Pharmacy</t>
-  </si>
-  <si>
-    <t>Tashrifa Pharmacy</t>
-  </si>
-  <si>
-    <t>Allar Dan Pharmacy</t>
-  </si>
-  <si>
-    <t>Medi Fair</t>
-  </si>
-  <si>
-    <t>Health Care Pharmacy</t>
-  </si>
-  <si>
-    <t>BAVS Metarnity Hospital</t>
-  </si>
-  <si>
-    <t>Bichitra Shawli</t>
-  </si>
-  <si>
-    <t>Nahin Medicine Corner</t>
-  </si>
-  <si>
-    <t>Crecent Medicine Corner</t>
-  </si>
-  <si>
-    <t>Yeasin Pharma</t>
-  </si>
-  <si>
-    <t>Global Specialized Hospital Ph</t>
-  </si>
-  <si>
-    <t>Bangladesh Specialized Hospita</t>
-  </si>
-  <si>
-    <t>Centre For Kidney Diseas And U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansar Camp Bus Stand,Mirpur 1,Dhaka                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satter Market,Dhaka Cantonment,Dhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoo Road,OGSB,Hospital,Mirpur 2,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 2,Dhaka                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">184 No Dhamal coat ,Showkhin Road,Dhaka                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur   10 A,Beside Aziz Medical Hall,Dhaka                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janata Housing Gate,Mirpur 1,Mirpur                         </t>
-  </si>
-  <si>
-    <t>H 01, Ln 25, Block C, Avenue 5,Near New Chandpur P, Mirpur 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananda Bazar,Shawrapara,Mirpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beside of Mirpur Model ThanaMirpur 2,Mirpur                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7, Al  Noori Jama Mosjid,2nd Floor, Mirpur  1,Dhaka         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 4, Shenpara, Near Shibli Pharmacy,Mirpur  10,Dhaka        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">150 1  Ka, Shah Ali Bag,Crecent Homes,Mirpur  1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 9, Block  F,joint Quater,Madrasha road, Mdpur,Dhaka       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mazar Road,Mirpur  1, Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21, Shyamoli, Mirpur Road,Dhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 32,R 3,Shamoli,Dhaka                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670455     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669981     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670078     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670454     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-651780     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670664     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670509     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-670701     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671451     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671214     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671664     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671715     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671960     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-672014     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-671962     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-652915     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-637209     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-637113     </t>
-  </si>
-  <si>
-    <t>19 Sep 2020</t>
-  </si>
-  <si>
-    <t>20 Aug 2020</t>
-  </si>
-  <si>
-    <t>20 Sep 2020</t>
-  </si>
-  <si>
-    <t>21 Sep 2020</t>
-  </si>
-  <si>
-    <t>22 Sep 2020</t>
-  </si>
-  <si>
-    <t>23 Aug 2020</t>
-  </si>
-  <si>
-    <t>24 Jul 2020</t>
+    <t>44019002834</t>
+  </si>
+  <si>
+    <t>44019000824</t>
+  </si>
+  <si>
+    <t>44031000134</t>
+  </si>
+  <si>
+    <t>44031100530</t>
+  </si>
+  <si>
+    <t>44019004162</t>
+  </si>
+  <si>
+    <t>44037801293</t>
+  </si>
+  <si>
+    <t>44037800478</t>
+  </si>
+  <si>
+    <t>4401900919</t>
+  </si>
+  <si>
+    <t>44031100537</t>
+  </si>
+  <si>
+    <t>44019000722</t>
+  </si>
+  <si>
+    <t>4406114546</t>
+  </si>
+  <si>
+    <t>44019004696</t>
+  </si>
+  <si>
+    <t>4406114628</t>
+  </si>
+  <si>
+    <t>44019000677</t>
+  </si>
+  <si>
+    <t>4406114617</t>
+  </si>
+  <si>
+    <t>44019003356</t>
+  </si>
+  <si>
+    <t>44031000058</t>
+  </si>
+  <si>
+    <t>44019000267</t>
+  </si>
+  <si>
+    <t>44019003238</t>
+  </si>
+  <si>
+    <t>4401900160</t>
+  </si>
+  <si>
+    <t>44019000050</t>
+  </si>
+  <si>
+    <t>44037801115</t>
+  </si>
+  <si>
+    <t>4401900199</t>
+  </si>
+  <si>
+    <t>44019003375</t>
+  </si>
+  <si>
+    <t>44031000453</t>
+  </si>
+  <si>
+    <t>44019001038</t>
+  </si>
+  <si>
+    <t>44019001136</t>
+  </si>
+  <si>
+    <t>44031102640</t>
+  </si>
+  <si>
+    <t>44031106432</t>
+  </si>
+  <si>
+    <t>44019001315</t>
+  </si>
+  <si>
+    <t>44031106433</t>
+  </si>
+  <si>
+    <t>44019008739</t>
+  </si>
+  <si>
+    <t>44019004061</t>
+  </si>
+  <si>
+    <t>44019002861</t>
+  </si>
+  <si>
+    <t>90000020142</t>
+  </si>
+  <si>
+    <t>44019002579</t>
+  </si>
+  <si>
+    <t>44031006965</t>
+  </si>
+  <si>
+    <t>44019001276</t>
+  </si>
+  <si>
+    <t>44031100429</t>
+  </si>
+  <si>
+    <t>44019001312</t>
+  </si>
+  <si>
+    <t>44019000701</t>
+  </si>
+  <si>
+    <t>44019004713</t>
+  </si>
+  <si>
+    <t>44019003846</t>
+  </si>
+  <si>
+    <t>44019000921</t>
+  </si>
+  <si>
+    <t>Talha Pharmacy</t>
+  </si>
+  <si>
+    <t>Zaman Pharmacy</t>
+  </si>
+  <si>
+    <t>Lily Medical Hall</t>
+  </si>
+  <si>
+    <t>Sathi Pharmacy</t>
+  </si>
+  <si>
+    <t>Rifa Medicine Corner</t>
+  </si>
+  <si>
+    <t>Satata Pharmacy</t>
+  </si>
+  <si>
+    <t>Rizia Pharmacy</t>
+  </si>
+  <si>
+    <t>Joynub Pharmacy</t>
+  </si>
+  <si>
+    <t>Modern Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr. Kasem Ali Shaikh</t>
+  </si>
+  <si>
+    <t>Bala Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Fahad Pharmacy</t>
+  </si>
+  <si>
+    <t>Faisal Medical Hall</t>
+  </si>
+  <si>
+    <t>Mondol Pharmacy</t>
+  </si>
+  <si>
+    <t>Muzahid Chikitshalaya</t>
+  </si>
+  <si>
+    <t>Satkhira Pharmacy</t>
+  </si>
+  <si>
+    <t>Emam Medical Store</t>
+  </si>
+  <si>
+    <t>Fatema Medical</t>
+  </si>
+  <si>
+    <t>Dipty Pharmacy</t>
+  </si>
+  <si>
+    <t>Nurjahan Pharmacy</t>
+  </si>
+  <si>
+    <t>Ripon Pharmacy</t>
+  </si>
+  <si>
+    <t>Tanny Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Medical Hall</t>
+  </si>
+  <si>
+    <t>Ratna Pharmacy</t>
+  </si>
+  <si>
+    <t>Mou Mita Pharmacy</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Shahana Clinic</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Abdul Jalil</t>
+  </si>
+  <si>
+    <t>Rabeya Pharmacy</t>
+  </si>
+  <si>
+    <t>Hiron Pharmacy</t>
+  </si>
+  <si>
+    <t>R K Pharmacy</t>
+  </si>
+  <si>
+    <t>Khan Medical Hall</t>
+  </si>
+  <si>
+    <t>Zoarder Pharmacy</t>
+  </si>
+  <si>
+    <t>M H Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Abul Hossain</t>
+  </si>
+  <si>
+    <t>Momin Pharmacy</t>
+  </si>
+  <si>
+    <t>Noornagar Pharmacy</t>
+  </si>
+  <si>
+    <t>Selim Pharmacy</t>
+  </si>
+  <si>
+    <t>Gopal Drug House</t>
+  </si>
+  <si>
+    <t>Prottasha Dental</t>
+  </si>
+  <si>
+    <t>Shawon Medical Hall</t>
+  </si>
+  <si>
+    <t>Shishu Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar Gobra Narail                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M M Ali Road Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana Road Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhawdanga Bazar Satkhira                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baroypara Ghat Narail                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanpur Bus Stand Shyamnagor                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulashi Bazar Navaron                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar Kolaroa Satkhira                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabderpur, Kotchand pur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Dr Nripen Bala Gazir Bazar Kaligonj                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashudebpur Bazar Jhikorgacha Jessore                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhopadi Bazar Kaligonj                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandartola,Moheshpur Jhenaidah                              </t>
+  </si>
+  <si>
+    <t>C O Akibul Islam Mangol Poita Bazar Kaligonj Mob 01726160151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monohorpur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khazura Bazar Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narkelbaria Bagharpara Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monoharpur Bazar Monirampur Jessore                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khatuadanga Bazar Monirampur Mob 01732236596 Jessore        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagtara Bazar Ashasuni Satkhira                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narkel Baria Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathaltola Bazar Monirampur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar Patkeighata Satkhira                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupgang Bazar Narail                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digholia Bazar Lohagora Narail                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noornagar Bazar Noornagar Shamnagar Satkhira                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gar Komarpur Protapnagor Shamnagor                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pankharchar Lohagara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gar Komarpur, Protapnagor Shamnagor                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonshipur Shyamnagar Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacha Magura Nowapara                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrasha Bazar Narail                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verarhat,Paranpur,Shayamnagor                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherpul Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chakbara Gabura Shyamnagar                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhuliani Bazar Chowgacha Jessore                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noornagar Bazar Shayamnagar Satkhira                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhanga Gate Noapara                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moheshpur Bazar Moheshpur Jhenaidah                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C D Bazar Lohagara Narail                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekutia Koloni More Jessore Mob:01712016667                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khajura Stand Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS76                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS105                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468068     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467814     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468150     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467899     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468049     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467802     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467756     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468637     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468565     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467866     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468575     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468554     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468367     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468301     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467947     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468872     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468972     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468924     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468903     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468759     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468680     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468462     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469013     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469138     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469324     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469543     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469200     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469423     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469199     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469156     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469357     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469190     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469241     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469185     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469112     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469225     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469161     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469414     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468968     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468714     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469010     </t>
+  </si>
+  <si>
+    <t>23 Sep 2020</t>
+  </si>
+  <si>
+    <t>24 Sep 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
+  </si>
+  <si>
+    <t>26 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -671,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,19 +1065,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -747,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>43641.41</v>
+        <v>49917.6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -758,19 +1097,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -779,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>25009.3</v>
+        <v>19871.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -790,19 +1129,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -811,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15031.32</v>
+        <v>19682.85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -819,22 +1158,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -843,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7417.14</v>
+        <v>10298.65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -851,31 +1190,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3890.14</v>
+        <v>4757.29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -883,31 +1222,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>25057.98</v>
+        <v>4000.07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -915,31 +1254,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15004.97</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -947,22 +1286,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -971,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>9701.92</v>
+        <v>29115.8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -979,31 +1318,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>9904.530000000001</v>
+        <v>20467.73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1011,31 +1350,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5830</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1043,31 +1382,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1348.12</v>
+        <v>6057.98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1075,31 +1414,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>68021.24000000001</v>
+        <v>6039.96</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1107,31 +1446,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>20041.49</v>
+        <v>5984.5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1139,31 +1478,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9773.629999999999</v>
+        <v>5172.12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1171,31 +1510,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>9727.209999999999</v>
+        <v>5170.03</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1203,31 +1542,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>8661.709999999999</v>
+        <v>500.21</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1235,31 +1574,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>927.12</v>
+        <v>176593.24</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1267,31 +1606,863 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>19779.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>11923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>10224.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>10148.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>6298.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>5981.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5276.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3041.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>50068.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>15464.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>15081.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>15007.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>12394.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>12286.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>11114.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>10025.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>9898.290000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>9646.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>8210.629999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>7985.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>7065.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>5191.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
         <v>92</v>
       </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19">
-        <v>90</v>
-      </c>
-      <c r="I19">
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>800</v>
+      <c r="J41">
+        <v>5092.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>5052.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>4704.62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3000.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>917.11</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="600">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,616 +43,1777 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>44019002834</t>
-  </si>
-  <si>
-    <t>44019000824</t>
-  </si>
-  <si>
-    <t>44031000134</t>
-  </si>
-  <si>
-    <t>44031100530</t>
-  </si>
-  <si>
-    <t>44019004162</t>
-  </si>
-  <si>
-    <t>44037801293</t>
-  </si>
-  <si>
-    <t>44037800478</t>
-  </si>
-  <si>
-    <t>4401900919</t>
-  </si>
-  <si>
-    <t>44031100537</t>
-  </si>
-  <si>
-    <t>44019000722</t>
-  </si>
-  <si>
-    <t>4406114546</t>
-  </si>
-  <si>
-    <t>44019004696</t>
-  </si>
-  <si>
-    <t>4406114628</t>
-  </si>
-  <si>
-    <t>44019000677</t>
-  </si>
-  <si>
-    <t>4406114617</t>
-  </si>
-  <si>
-    <t>44019003356</t>
-  </si>
-  <si>
-    <t>44031000058</t>
-  </si>
-  <si>
-    <t>44019000267</t>
-  </si>
-  <si>
-    <t>44019003238</t>
-  </si>
-  <si>
-    <t>4401900160</t>
-  </si>
-  <si>
-    <t>44019000050</t>
-  </si>
-  <si>
-    <t>44037801115</t>
-  </si>
-  <si>
-    <t>4401900199</t>
-  </si>
-  <si>
-    <t>44019003375</t>
-  </si>
-  <si>
-    <t>44031000453</t>
-  </si>
-  <si>
-    <t>44019001038</t>
-  </si>
-  <si>
-    <t>44019001136</t>
-  </si>
-  <si>
-    <t>44031102640</t>
-  </si>
-  <si>
-    <t>44031106432</t>
-  </si>
-  <si>
-    <t>44019001315</t>
-  </si>
-  <si>
-    <t>44031106433</t>
-  </si>
-  <si>
-    <t>44019008739</t>
-  </si>
-  <si>
-    <t>44019004061</t>
-  </si>
-  <si>
-    <t>44019002861</t>
-  </si>
-  <si>
-    <t>90000020142</t>
-  </si>
-  <si>
-    <t>44019002579</t>
-  </si>
-  <si>
-    <t>44031006965</t>
-  </si>
-  <si>
-    <t>44019001276</t>
-  </si>
-  <si>
-    <t>44031100429</t>
-  </si>
-  <si>
-    <t>44019001312</t>
-  </si>
-  <si>
-    <t>44019000701</t>
-  </si>
-  <si>
-    <t>44019004713</t>
-  </si>
-  <si>
-    <t>44019003846</t>
-  </si>
-  <si>
-    <t>44019000921</t>
-  </si>
-  <si>
-    <t>Talha Pharmacy</t>
-  </si>
-  <si>
-    <t>Zaman Pharmacy</t>
-  </si>
-  <si>
-    <t>Lily Medical Hall</t>
-  </si>
-  <si>
-    <t>Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t>Rifa Medicine Corner</t>
-  </si>
-  <si>
-    <t>Satata Pharmacy</t>
-  </si>
-  <si>
-    <t>Rizia Pharmacy</t>
-  </si>
-  <si>
-    <t>Joynub Pharmacy</t>
-  </si>
-  <si>
-    <t>Modern Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr. Kasem Ali Shaikh</t>
-  </si>
-  <si>
-    <t>Bala Pharmacy</t>
-  </si>
-  <si>
-    <t>Biswas Pharmacy</t>
-  </si>
-  <si>
-    <t>Fahad Pharmacy</t>
-  </si>
-  <si>
-    <t>Faisal Medical Hall</t>
-  </si>
-  <si>
-    <t>Mondol Pharmacy</t>
-  </si>
-  <si>
-    <t>Muzahid Chikitshalaya</t>
-  </si>
-  <si>
-    <t>Satkhira Pharmacy</t>
-  </si>
-  <si>
-    <t>Emam Medical Store</t>
-  </si>
-  <si>
-    <t>Fatema Medical</t>
-  </si>
-  <si>
-    <t>Dipty Pharmacy</t>
-  </si>
-  <si>
-    <t>Nurjahan Pharmacy</t>
-  </si>
-  <si>
-    <t>Ripon Pharmacy</t>
-  </si>
-  <si>
-    <t>Tanny Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarder Medical Hall</t>
-  </si>
-  <si>
-    <t>Ratna Pharmacy</t>
-  </si>
-  <si>
-    <t>Mou Mita Pharmacy</t>
+    <t>90000001687</t>
+  </si>
+  <si>
+    <t>27012101975</t>
+  </si>
+  <si>
+    <t>27012110090</t>
+  </si>
+  <si>
+    <t>90000005880</t>
+  </si>
+  <si>
+    <t>27012111846</t>
+  </si>
+  <si>
+    <t>27012100205</t>
+  </si>
+  <si>
+    <t>27012120815</t>
+  </si>
+  <si>
+    <t>27012111025</t>
+  </si>
+  <si>
+    <t>27012100641</t>
+  </si>
+  <si>
+    <t>27012211745</t>
+  </si>
+  <si>
+    <t>27012120522</t>
+  </si>
+  <si>
+    <t>27012121271</t>
+  </si>
+  <si>
+    <t>27012111553</t>
+  </si>
+  <si>
+    <t>27012100394</t>
+  </si>
+  <si>
+    <t>27012102145</t>
+  </si>
+  <si>
+    <t>27012111459</t>
+  </si>
+  <si>
+    <t>27012100396</t>
+  </si>
+  <si>
+    <t>27061000609</t>
+  </si>
+  <si>
+    <t>27012101595</t>
+  </si>
+  <si>
+    <t>27012112574</t>
+  </si>
+  <si>
+    <t>27061004146</t>
+  </si>
+  <si>
+    <t>27012109998</t>
+  </si>
+  <si>
+    <t>27012113227</t>
+  </si>
+  <si>
+    <t>27012111002</t>
+  </si>
+  <si>
+    <t>27012110084</t>
+  </si>
+  <si>
+    <t>27061101129</t>
+  </si>
+  <si>
+    <t>90000003433</t>
+  </si>
+  <si>
+    <t>27012100017</t>
+  </si>
+  <si>
+    <t>27061110220</t>
+  </si>
+  <si>
+    <t>90000011391</t>
+  </si>
+  <si>
+    <t>27012111741</t>
+  </si>
+  <si>
+    <t>90000008002</t>
+  </si>
+  <si>
+    <t>27021001923</t>
+  </si>
+  <si>
+    <t>27012100342</t>
+  </si>
+  <si>
+    <t>27021100987</t>
+  </si>
+  <si>
+    <t>27021003842</t>
+  </si>
+  <si>
+    <t>27012112438</t>
+  </si>
+  <si>
+    <t>90000000840</t>
+  </si>
+  <si>
+    <t>27021006605</t>
+  </si>
+  <si>
+    <t>27021100897</t>
+  </si>
+  <si>
+    <t>27061110193</t>
+  </si>
+  <si>
+    <t>27021001823</t>
+  </si>
+  <si>
+    <t>27012110004</t>
+  </si>
+  <si>
+    <t>27012110881</t>
+  </si>
+  <si>
+    <t>27021000999</t>
+  </si>
+  <si>
+    <t>27021001792</t>
+  </si>
+  <si>
+    <t>27021003871</t>
+  </si>
+  <si>
+    <t>27021001819</t>
+  </si>
+  <si>
+    <t>27021003195</t>
+  </si>
+  <si>
+    <t>27021100334</t>
+  </si>
+  <si>
+    <t>27021011000</t>
+  </si>
+  <si>
+    <t>27012120962</t>
+  </si>
+  <si>
+    <t>27012210155</t>
+  </si>
+  <si>
+    <t>27021110393</t>
+  </si>
+  <si>
+    <t>27021002664</t>
+  </si>
+  <si>
+    <t>27021003870</t>
+  </si>
+  <si>
+    <t>27021009258</t>
+  </si>
+  <si>
+    <t>27021100989</t>
+  </si>
+  <si>
+    <t>90000002283</t>
+  </si>
+  <si>
+    <t>27012110616</t>
+  </si>
+  <si>
+    <t>27021005343</t>
+  </si>
+  <si>
+    <t>27012121273</t>
+  </si>
+  <si>
+    <t>27012111714</t>
+  </si>
+  <si>
+    <t>27021110344</t>
+  </si>
+  <si>
+    <t>2701241972</t>
+  </si>
+  <si>
+    <t>27021003844</t>
+  </si>
+  <si>
+    <t>27021001016</t>
+  </si>
+  <si>
+    <t>27012210199</t>
+  </si>
+  <si>
+    <t>90000011359</t>
+  </si>
+  <si>
+    <t>27012100046</t>
+  </si>
+  <si>
+    <t>27021000304</t>
+  </si>
+  <si>
+    <t>27021003869</t>
+  </si>
+  <si>
+    <t>27021110392</t>
+  </si>
+  <si>
+    <t>27021005056</t>
+  </si>
+  <si>
+    <t>27012112337</t>
+  </si>
+  <si>
+    <t>27012113402</t>
+  </si>
+  <si>
+    <t>2701241981</t>
+  </si>
+  <si>
+    <t>27012112050</t>
+  </si>
+  <si>
+    <t>27021100370</t>
+  </si>
+  <si>
+    <t>27012121190</t>
+  </si>
+  <si>
+    <t>27012111294</t>
+  </si>
+  <si>
+    <t>27012210102</t>
+  </si>
+  <si>
+    <t>27021006711</t>
+  </si>
+  <si>
+    <t>27021005322</t>
+  </si>
+  <si>
+    <t>90000000773</t>
+  </si>
+  <si>
+    <t>27012210114</t>
+  </si>
+  <si>
+    <t>27021001806</t>
+  </si>
+  <si>
+    <t>27021005253</t>
+  </si>
+  <si>
+    <t>27021001268</t>
+  </si>
+  <si>
+    <t>27012112428</t>
+  </si>
+  <si>
+    <t>27021001578</t>
+  </si>
+  <si>
+    <t>27021005361</t>
+  </si>
+  <si>
+    <t>27012100068</t>
+  </si>
+  <si>
+    <t>27021001861</t>
+  </si>
+  <si>
+    <t>27021002513</t>
+  </si>
+  <si>
+    <t>27021001220</t>
+  </si>
+  <si>
+    <t>27012121238</t>
+  </si>
+  <si>
+    <t>270216566728</t>
+  </si>
+  <si>
+    <t>27021001740</t>
+  </si>
+  <si>
+    <t>27021110315</t>
+  </si>
+  <si>
+    <t>90000011403</t>
+  </si>
+  <si>
+    <t>27012210194</t>
+  </si>
+  <si>
+    <t>27012111950</t>
+  </si>
+  <si>
+    <t>27012121050</t>
+  </si>
+  <si>
+    <t>27021004749</t>
+  </si>
+  <si>
+    <t>27021002967</t>
+  </si>
+  <si>
+    <t>27012121255</t>
+  </si>
+  <si>
+    <t>27021000019</t>
+  </si>
+  <si>
+    <t>27012111354</t>
+  </si>
+  <si>
+    <t>27012111415</t>
+  </si>
+  <si>
+    <t>27012111255</t>
+  </si>
+  <si>
+    <t>27012100998</t>
+  </si>
+  <si>
+    <t>27012111885</t>
+  </si>
+  <si>
+    <t>27012111870</t>
+  </si>
+  <si>
+    <t>27012110872</t>
+  </si>
+  <si>
+    <t>27012110891</t>
+  </si>
+  <si>
+    <t>27012121251</t>
+  </si>
+  <si>
+    <t>27012112310</t>
+  </si>
+  <si>
+    <t>27012120330</t>
+  </si>
+  <si>
+    <t>27012100624</t>
+  </si>
+  <si>
+    <t>27012100415</t>
+  </si>
+  <si>
+    <t>27012112833</t>
+  </si>
+  <si>
+    <t>27012121156</t>
+  </si>
+  <si>
+    <t>27021208492</t>
+  </si>
+  <si>
+    <t>27012121261</t>
+  </si>
+  <si>
+    <t>27012111084</t>
+  </si>
+  <si>
+    <t>27012110443</t>
+  </si>
+  <si>
+    <t>27012120879</t>
+  </si>
+  <si>
+    <t>27012100818</t>
+  </si>
+  <si>
+    <t>27012101114</t>
+  </si>
+  <si>
+    <t>27012110985</t>
+  </si>
+  <si>
+    <t>90000006341</t>
+  </si>
+  <si>
+    <t>27012101383</t>
+  </si>
+  <si>
+    <t>27012120080</t>
+  </si>
+  <si>
+    <t>27012110618</t>
+  </si>
+  <si>
+    <t>27012110276</t>
+  </si>
+  <si>
+    <t>90000002669</t>
+  </si>
+  <si>
+    <t>27012111882</t>
+  </si>
+  <si>
+    <t>90000001443</t>
+  </si>
+  <si>
+    <t>27012121155</t>
+  </si>
+  <si>
+    <t>90000025905</t>
+  </si>
+  <si>
+    <t>Mintu Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Sonagazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Modina Medical Hall</t>
+  </si>
+  <si>
+    <t>Rawshon Pharmacy</t>
+  </si>
+  <si>
+    <t>Green Medical Hall</t>
+  </si>
+  <si>
+    <t>Azim Pharmicy</t>
+  </si>
+  <si>
+    <t>Boloram Pharmacy</t>
+  </si>
+  <si>
+    <t>Insaf Medicine Corner</t>
+  </si>
+  <si>
+    <t>Fatema Pharmacy</t>
+  </si>
+  <si>
+    <t>Morium Medical Hall</t>
+  </si>
+  <si>
+    <t>Day Night Medical Hall</t>
+  </si>
+  <si>
+    <t>Mita Medical Hall</t>
+  </si>
+  <si>
+    <t>Midway Pharmacy</t>
+  </si>
+  <si>
+    <t>Sayma Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarker Pharmacy</t>
+  </si>
+  <si>
+    <t>Ratna Medical Hall</t>
+  </si>
+  <si>
+    <t>Uday Pharmacy</t>
+  </si>
+  <si>
+    <t>Sufia Medical Hall</t>
+  </si>
+  <si>
+    <t>Saju Medical Hall</t>
+  </si>
+  <si>
+    <t>Suriya Medical Hall</t>
+  </si>
+  <si>
+    <t>Don Pharmacy</t>
+  </si>
+  <si>
+    <t>Ratan Pahramcy</t>
+  </si>
+  <si>
+    <t>Life Care</t>
+  </si>
+  <si>
+    <t>Kazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Don 2 Pharmacy</t>
+  </si>
+  <si>
+    <t>Tazim Medical Hall</t>
+  </si>
+  <si>
+    <t>Bhuiyan Medical Hall</t>
+  </si>
+  <si>
+    <t>Ishaq Medical Hall</t>
+  </si>
+  <si>
+    <t>Shawon Medical Hall</t>
+  </si>
+  <si>
+    <t>Crescent Pharmacy</t>
+  </si>
+  <si>
+    <t>Kanchan Pharmacy</t>
+  </si>
+  <si>
+    <t>Bhowmick Pharmacy</t>
+  </si>
+  <si>
+    <t>Shohag Pharmacy</t>
+  </si>
+  <si>
+    <t>Pintu Medical Hall</t>
+  </si>
+  <si>
+    <t>Bagaichori Madical Hall</t>
+  </si>
+  <si>
+    <t>Biddut Pharmacy</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Life Pharma</t>
+  </si>
+  <si>
+    <t>Karim Medical Hall</t>
+  </si>
+  <si>
+    <t>Kiron Medical Hall</t>
+  </si>
+  <si>
+    <t>Haque Medical Hall</t>
+  </si>
+  <si>
+    <t>Liton Pharmacy</t>
+  </si>
+  <si>
+    <t>The Hill Side M Hall</t>
+  </si>
+  <si>
+    <t>Kazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Mitra Pharmacy</t>
+  </si>
+  <si>
+    <t>Emdadia Pharmacy</t>
+  </si>
+  <si>
+    <t>All Falla Pharmacy</t>
+  </si>
+  <si>
+    <t>Sultan Pharmacy</t>
+  </si>
+  <si>
+    <t>Sourav Medical Hall</t>
+  </si>
+  <si>
+    <t>Badal Pharmacy</t>
+  </si>
+  <si>
+    <t>Modern Drug House</t>
+  </si>
+  <si>
+    <t>Happy Medical Hall</t>
+  </si>
+  <si>
+    <t>Jahanara Medical Hall</t>
+  </si>
+  <si>
+    <t>Sheba Pharmacy</t>
+  </si>
+  <si>
+    <t>Monowara Pharmacy</t>
+  </si>
+  <si>
+    <t>Noor Medical Hall</t>
+  </si>
+  <si>
+    <t>Sefa Pharmacy</t>
+  </si>
+  <si>
+    <t>Bakshi Medical Hall</t>
+  </si>
+  <si>
+    <t>Janani Pharmacy</t>
+  </si>
+  <si>
+    <t>Joya Medical Hall</t>
+  </si>
+  <si>
+    <t>M B Medical Hall</t>
+  </si>
+  <si>
+    <t>Nasir Enterprise</t>
+  </si>
+  <si>
+    <t>Islamia Pharmacy</t>
+  </si>
+  <si>
+    <t>Al Amin Medical Hall</t>
+  </si>
+  <si>
+    <t>Durjoy Pharmacy</t>
+  </si>
+  <si>
+    <t>Pushpa Medical Hall</t>
+  </si>
+  <si>
+    <t>Protima Pharmacy</t>
+  </si>
+  <si>
+    <t>Triratna Pharmacy</t>
+  </si>
+  <si>
+    <t>Uttam Pharmacy</t>
+  </si>
+  <si>
+    <t>Surju Medical Hall</t>
+  </si>
+  <si>
+    <t>Sajib Medical Hall</t>
+  </si>
+  <si>
+    <t>Majumder Pharmacy</t>
+  </si>
+  <si>
+    <t>Bristi Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Health Care Clinic</t>
+  </si>
+  <si>
+    <t>Mim Medical Hall</t>
+  </si>
+  <si>
+    <t>Sakib Medical Hall</t>
+  </si>
+  <si>
+    <t>Mono Pharmacy</t>
+  </si>
+  <si>
+    <t>Sujit Medical Hall 2</t>
+  </si>
+  <si>
+    <t>Gitangoli Pharmacy</t>
+  </si>
+  <si>
+    <t>Babla Pharmacy</t>
+  </si>
+  <si>
+    <t>Dipto Pharmacy</t>
+  </si>
+  <si>
+    <t>N B Trading</t>
+  </si>
+  <si>
+    <t>Jahir Medical Hal</t>
+  </si>
+  <si>
+    <t>Amir Medical Hall</t>
+  </si>
+  <si>
+    <t>Shuresh Pharmacy</t>
+  </si>
+  <si>
+    <t>Janani Medical Hall</t>
+  </si>
+  <si>
+    <t>Tahara Pharmacy</t>
+  </si>
+  <si>
+    <t>Mehaarab Pharmacy</t>
+  </si>
+  <si>
+    <t>Alam Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismilla Pharmacy</t>
+  </si>
+  <si>
+    <t>Sumi Pharmacy</t>
+  </si>
+  <si>
+    <t>Ma Medical hall</t>
+  </si>
+  <si>
+    <t>Holy Crescent Hospital</t>
+  </si>
+  <si>
+    <t>Master Medical Hall</t>
+  </si>
+  <si>
+    <t>Sima Medicine Corner</t>
+  </si>
+  <si>
+    <t>Nazrul Pharmacy</t>
+  </si>
+  <si>
+    <t>Saiful Medical Hall</t>
+  </si>
+  <si>
+    <t>Tri Sharan Pharmacy</t>
+  </si>
+  <si>
+    <t>Harun Medical Hall</t>
+  </si>
+  <si>
+    <t>Charu Pharmacy</t>
   </si>
   <si>
     <t>Janata Pharmacy</t>
   </si>
   <si>
-    <t>Shahana Clinic</t>
-  </si>
-  <si>
-    <t>Bismillah Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Abdul Jalil</t>
-  </si>
-  <si>
-    <t>Rabeya Pharmacy</t>
-  </si>
-  <si>
-    <t>Hiron Pharmacy</t>
-  </si>
-  <si>
-    <t>R K Pharmacy</t>
-  </si>
-  <si>
-    <t>Khan Medical Hall</t>
-  </si>
-  <si>
-    <t>Zoarder Pharmacy</t>
-  </si>
-  <si>
-    <t>M H Medical Hall</t>
-  </si>
-  <si>
-    <t>Dr Abul Hossain</t>
-  </si>
-  <si>
-    <t>Momin Pharmacy</t>
-  </si>
-  <si>
-    <t>Noornagar Pharmacy</t>
-  </si>
-  <si>
-    <t>Selim Pharmacy</t>
-  </si>
-  <si>
-    <t>Gopal Drug House</t>
-  </si>
-  <si>
-    <t>Prottasha Dental</t>
-  </si>
-  <si>
-    <t>Shawon Medical Hall</t>
-  </si>
-  <si>
-    <t>Shishu Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirzapur Bazar Gobra Narail                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M M Ali Road Jessore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana Road Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhawdanga Bazar Satkhira                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baroypara Ghat Narail                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanpur Bus Stand Shyamnagor                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulashi Bazar Navaron                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolaroa Bazar Kolaroa Satkhira                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabderpur, Kotchand pur                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C O Dr Nripen Bala Gazir Bazar Kaligonj                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashudebpur Bazar Jhikorgacha Jessore                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhopadi Bazar Kaligonj                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandartola,Moheshpur Jhenaidah                              </t>
-  </si>
-  <si>
-    <t>C O Akibul Islam Mangol Poita Bazar Kaligonj Mob 01726160151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monohorpur Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboni More Satkhira                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khazura Bazar Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narkelbaria Bagharpara Jessore                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monoharpur Bazar Monirampur Jessore                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khatuadanga Bazar Monirampur Mob 01732236596 Jessore        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagtara Bazar Ashasuni Satkhira                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narkel Baria Jessore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathaltola Bazar Monirampur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirzapur Bazar Patkeighata Satkhira                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupgang Bazar Narail                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digholia Bazar Lohagora Narail                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noornagar Bazar Noornagar Shamnagar Satkhira                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gar Komarpur Protapnagor Shamnagor                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pankharchar Lohagara                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gar Komarpur, Protapnagor Shamnagor                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonshipur Shyamnagar Satkhira                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacha Magura Nowapara                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madrasha Bazar Narail                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verarhat,Paranpur,Shayamnagor                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherpul Jessore                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chakbara Gabura Shyamnagar                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhuliani Bazar Chowgacha Jessore                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noornagar Bazar Shayamnagar Satkhira                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhanga Gate Noapara                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moheshpur Bazar Moheshpur Jhenaidah                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C D Bazar Lohagara Narail                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bekutia Koloni More Jessore Mob:01712016667                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khajura Stand Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS65                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS93                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS76                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS105                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS84                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468068     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467814     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468150     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467899     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468049     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467802     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467756     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468637     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468565     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467866     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468575     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468554     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468367     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468296     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468301     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467947     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468872     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468972     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468924     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468903     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468759     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468680     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468655     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468462     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469013     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469138     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469324     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469543     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469200     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469423     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469199     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469076     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469156     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469357     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469190     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469241     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469185     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469112     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469225     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469161     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469414     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468968     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-468714     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469010     </t>
-  </si>
-  <si>
-    <t>23 Sep 2020</t>
-  </si>
-  <si>
-    <t>24 Sep 2020</t>
-  </si>
-  <si>
-    <t>25 Sep 2020</t>
+    <t>Paul Medical Hall</t>
+  </si>
+  <si>
+    <t>Anima Medical Hall</t>
+  </si>
+  <si>
+    <t>Master Pharmacy</t>
+  </si>
+  <si>
+    <t>Popular Pharmacy</t>
+  </si>
+  <si>
+    <t>Joy Medical Hall</t>
+  </si>
+  <si>
+    <t>Dack Bangla Pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Pharmacy</t>
+  </si>
+  <si>
+    <t>Soleman Pharmacy</t>
+  </si>
+  <si>
+    <t>Joshim Medical Hall</t>
+  </si>
+  <si>
+    <t>Rasel Medical Hall</t>
+  </si>
+  <si>
+    <t>S Alam Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Sumon Ray</t>
+  </si>
+  <si>
+    <t>Salina Kabir Medical Hall</t>
+  </si>
+  <si>
+    <t>Anower Medical Hall</t>
+  </si>
+  <si>
+    <t>Lipe Medical Hall</t>
+  </si>
+  <si>
+    <t>Saleha Drug House</t>
+  </si>
+  <si>
+    <t>Bangladesh Medical Hall</t>
+  </si>
+  <si>
+    <t>Saikot Medical Hall</t>
+  </si>
+  <si>
+    <t>Bismillah Medical Hall</t>
+  </si>
+  <si>
+    <t>Belal Medical Hall</t>
+  </si>
+  <si>
+    <t>Janaseba Medical Hall</t>
+  </si>
+  <si>
+    <t>Matree Pharmacy</t>
+  </si>
+  <si>
+    <t>Swapna Medical Hall</t>
+  </si>
+  <si>
+    <t>Bijoy Medical Hall</t>
+  </si>
+  <si>
+    <t>Ashraf Medical Hall</t>
+  </si>
+  <si>
+    <t>Rupali Mediclal Hall</t>
+  </si>
+  <si>
+    <t>Radey Medical Hall</t>
+  </si>
+  <si>
+    <t>Promila Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khagrabil                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramgor Bazar Rahghor Khagrachori                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takia Road Sonagazi                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K.M. Hat,Fazilpur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohurigonj                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolipara Ramgorh Khagrachori                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaiyara Rastar More                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quddis Munshi Sonagazi Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korerhat Road Baraiyerhat                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonaipol Ramgor                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottoli, Fazilpur Feni                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karerhat Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagalnaya Feni                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trunk Road Fefi                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdhuryhat Basurhat Noakhali                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silonia Bazar Dagonbhuiyan Feni                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashraf Medical Market Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdary Bazar Chawdagram                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Road Chagolnaya                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosque Road Beker Bazar Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheora Raster Matha Chauddagram Comilla                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denar Hat Tagor Digirpar Chagolnaya                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Ranirhat Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Road Chhagalnaiay Feni                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagalnaiya Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasir Batgach Chowdhagram                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranirhat Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poddar Pukur Par                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solakandi 14 Gram                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konkapote Bazar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faziler Ghat Dagon Bhuiyan                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charumed                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matiranga Khagrachari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangmala Basurhat Noakhali                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matiranga Bazar Khagrachari                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guimara Mitiranga                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darbesherhat Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagaichori                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longgudu Mynee                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosjid Market Baghaichari Rangamati                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Mijanor Rahman AlAmin Market Kailikata Mia Bazar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaprashirhat Basurhat Noakhali                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajapur Bazar Feni                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitchari Mohalchari                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitchary Khagrachari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marung Bazar Dihhinala                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boalkhali Bazar Digheenala Khagrachari                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchari Bhagaichari                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabulchari  Taindong Road Khagrachari Matiranga             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohalchari Khagrachari                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohipal Feni                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Basurhat Noakhali                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boalkhali Bazar Diginala Chittagong                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhai Bon Chara Khagrachari                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merung Bazar Dighinala                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matiranga Rangamati                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moszid Market Bhagichari                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaldhar Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunobati Bazar Feni                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korollachari Langadu Rangamati                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darbaserhat Feni                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakshi Bazar Fulgazai Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapja chattor Khagrachari Chittagong                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olatoli Feni                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natun Bazar Tobalchari Road                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khagrachari                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natun Bazar Darmapur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abupur Mazar,                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamni Bazar Chagolnaya Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khazur Bagan Khagrachari                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalia Para Guimara                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindukchari Matiranga Khagrachari                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modhupur Bazar Khagrachari                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academy Bazar Bashurhat Noakhali                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olatoli Bazar                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulgazi Porsuram                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battali Bazar Khagrachari                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunabati Feni                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunobati Bazer                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabtala Bazar Fulgazi Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longudu Rangamati                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabakhali Dighinala Khagrachari                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxmahmud Chhagalnaiya Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazarirhat Basurhat Noakhali                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaid Kadar Road Khagrachari                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhon Pudi Bazar Singinala Moholchori                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battali Baghaichari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derbaserhat                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramsira Matiranga CTG                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dighinala Khagrachari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Gate Basurhat Noakhali                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puraton Gurur Bazar khagrachuri                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taindong Bazar Matiranga Khagrachuri                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchari Bhagaichari Rangamati Khagrachari                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogunathpur, Darbeserhat                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindukchari, Guemara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanti Nagor                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chawmuhani, Tindong                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podua Gunoboti Road                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajapur Feni                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ragunath Pur Bazar Rajapur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silori Gunobuthi Feni                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorollaChori Rangamati                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethchari Mohalchari Khagrachari                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottala  Nizkungora Barierhat Feni                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaipool Ramgar                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karamotia Sonagazi                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhumgat Barayerhat                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baktermunshi Sonagazi                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bariyarhat,Mirsharai,Chittagong                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiruddin Munshirhat Sonagazi Feni                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karer Hat                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonagazi Quddis Miah Bazar                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dack Bangla                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garader Dokhan Ramghor Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono Miar Hat Sonagazi Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taymohani Nangol mora                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutirhat Bazar Sonagazi Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nangol Mora Baryarhat                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dack Bangla Noakhali                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shantirhat Barierhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pubali Bazar,Feni Sadar,Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nangalmora,                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bockter Munshi Sonagazi Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiruddin Munshir Hat Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemua Bazar                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiakerhat Baraiyerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motigonj Sonagazi Feni                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenama Hall Road Feni Town Feni                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boktermunshi Bazar                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karerhat                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upzila gate Feni Feni                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawab Pur Bazar Feni                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuddusmusir Hat Sonagazi Feni                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhor Bazar,Fazilpur                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Muhuriganj Chagolniya                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolatoli Fazilpur Feni                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahid Emajuudin Road                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalatoli,Fazilpur,Feni                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK66                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK25                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK57                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK56                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK55                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349199     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349291     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349163     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349326     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349349     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349346     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349344     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349178     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349231     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349179     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349289     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349668     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349406     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349628     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349391     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349463     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349627     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349552     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349640     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349556     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349402     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349654     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349692     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349469     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349400     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349544     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349419     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349435     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349570     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350204     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350167     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350095     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349826     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350014     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350037     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350233     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349762     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350207     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350054     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349978     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349980     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349998     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350024     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350007     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349893     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350083     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350212     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350206     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349977     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349732     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350148     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350012     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349750     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349862     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350163     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349797     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350085     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350160     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350202     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350032     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350118     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349988     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350046     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349957     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350027     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350061     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349848     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350090     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350216     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349949     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350016     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349799     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349966     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350115     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350149     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350062     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349756     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350117     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349940     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350224     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349981     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350178     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350225     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350110     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349970     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350050     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349792     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350100     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349872     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350001     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350139     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349819     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349944     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349763     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350015     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349822     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349841     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349784     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349969     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350043     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350097     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349835     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349927     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350276     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350361     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350290     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350283     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350454     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350434     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350399     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350360     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350455     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350380     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350320     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350395     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350280     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350452     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350279     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350274     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350438     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350272     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350460     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350447     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350396     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350352     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350404     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350316     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350257     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350315     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350334     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350246     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350275     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350281     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350293     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350278     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350468     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350250     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350312     </t>
   </si>
   <si>
     <t>26 Sep 2020</t>
+  </si>
+  <si>
+    <t>27 Sep 2020</t>
+  </si>
+  <si>
+    <t>28 Sep 2020</t>
+  </si>
+  <si>
+    <t>29 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,19 +2226,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>455</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -1086,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>49917.6</v>
+        <v>30013.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1097,19 +2258,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -1118,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19871.9</v>
+        <v>20863.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1129,19 +2290,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>421</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>457</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1150,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>19682.85</v>
+        <v>15024.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1161,19 +2322,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>422</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1182,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10298.65</v>
+        <v>10041.01</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1193,19 +2354,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>423</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>459</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1214,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4757.29</v>
+        <v>10000.01</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1225,19 +2386,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>460</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1246,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4000.07</v>
+        <v>9991.59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1257,19 +2418,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>422</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>461</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>596</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1278,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3000</v>
+        <v>9982.68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1289,28 +2450,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>29115.8</v>
+        <v>9972.389999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1321,28 +2482,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>20467.73</v>
+        <v>9942.610000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1353,28 +2514,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6500</v>
+        <v>9894.41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1385,28 +2546,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>422</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6057.98</v>
+        <v>7883.65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1417,28 +2578,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>426</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>466</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>596</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6039.96</v>
+        <v>5080.53</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1449,19 +2610,19 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>597</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -1470,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5984.5</v>
+        <v>23225.79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1481,19 +2642,19 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>428</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>468</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>597</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1502,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5172.12</v>
+        <v>19998.37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1513,19 +2674,19 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>469</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>597</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -1534,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5170.03</v>
+        <v>15052.62</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1545,19 +2706,19 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>597</v>
       </c>
       <c r="H17">
         <v>30</v>
@@ -1566,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>500.21</v>
+        <v>14983.71</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1577,28 +2738,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>471</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>176593.24</v>
+        <v>14426.27</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1609,28 +2770,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>472</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>19779.2</v>
+        <v>12999.68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1641,28 +2802,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>433</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>11923</v>
+        <v>10011.18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1673,28 +2834,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>474</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H21">
         <v>30</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>10224.84</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1705,28 +2866,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H22">
         <v>30</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>10148.36</v>
+        <v>9979.16</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1737,28 +2898,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H23">
         <v>30</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>6298.05</v>
+        <v>9917.280000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1769,28 +2930,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>477</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H24">
         <v>30</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>5981.62</v>
+        <v>9830.709999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1801,28 +2962,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>433</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>478</v>
       </c>
       <c r="G25" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>5276.42</v>
+        <v>9620.809999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1833,28 +2994,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>479</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>597</v>
       </c>
       <c r="H26">
         <v>30</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3041.89</v>
+        <v>9431.24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1865,28 +3026,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="G27" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H27">
         <v>30</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>50068.3</v>
+        <v>9006.209999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1897,28 +3058,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>434</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>481</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>15464.39</v>
+        <v>5000.12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1929,28 +3090,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>435</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>482</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H29">
         <v>30</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>15081.07</v>
+        <v>4999.76</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1961,28 +3122,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H30">
         <v>30</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>15007.8</v>
+        <v>4836.64</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1993,28 +3154,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>484</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>12394.25</v>
+        <v>4711.79</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2025,28 +3186,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>435</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>485</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="H32">
         <v>30</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>12286.04</v>
+        <v>2541.68</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2057,28 +3218,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>486</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H33">
         <v>30</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>11114.03</v>
+        <v>50010.57</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2089,28 +3250,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>438</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>487</v>
       </c>
       <c r="G34" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H34">
         <v>30</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>10025.37</v>
+        <v>39295.59</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2121,28 +3282,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>488</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H35">
         <v>30</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>9898.290000000001</v>
+        <v>34810.94</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2153,28 +3314,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>489</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H36">
         <v>30</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>9646.99</v>
+        <v>29972.32</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2185,28 +3346,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>438</v>
       </c>
       <c r="F37" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H37">
         <v>30</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>8210.629999999999</v>
+        <v>29691.6</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2217,28 +3378,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>491</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H38">
         <v>30</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>7985.53</v>
+        <v>27668.29</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2249,28 +3410,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>492</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H39">
         <v>30</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>7065.47</v>
+        <v>24858.97</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2281,28 +3442,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H40">
         <v>30</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>5191.55</v>
+        <v>24601.12</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2313,28 +3474,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>494</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H41">
         <v>30</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>5092.32</v>
+        <v>24178.08</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2345,28 +3506,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>495</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H42">
         <v>30</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>5052.88</v>
+        <v>20063.61</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2377,28 +3538,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>440</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>496</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H43">
         <v>30</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>4704.62</v>
+        <v>19999.96</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2409,28 +3570,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>598</v>
       </c>
       <c r="H44">
         <v>30</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>3000.67</v>
+        <v>19999.93</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2441,28 +3602,3132 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" t="s">
+        <v>441</v>
+      </c>
+      <c r="F45" t="s">
+        <v>498</v>
+      </c>
+      <c r="G45" t="s">
+        <v>598</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>19928.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" t="s">
+        <v>445</v>
+      </c>
+      <c r="F46" t="s">
+        <v>499</v>
+      </c>
+      <c r="G46" t="s">
+        <v>598</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>19867.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" t="s">
+        <v>445</v>
+      </c>
+      <c r="F47" t="s">
+        <v>500</v>
+      </c>
+      <c r="G47" t="s">
+        <v>598</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>19851.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" t="s">
+        <v>446</v>
+      </c>
+      <c r="F48" t="s">
+        <v>501</v>
+      </c>
+      <c r="G48" t="s">
+        <v>598</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>19631.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F49" t="s">
+        <v>502</v>
+      </c>
+      <c r="G49" t="s">
+        <v>598</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>17801.73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" t="s">
+        <v>328</v>
+      </c>
+      <c r="E50" t="s">
+        <v>442</v>
+      </c>
+      <c r="F50" t="s">
+        <v>503</v>
+      </c>
+      <c r="G50" t="s">
+        <v>598</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>16994.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>329</v>
+      </c>
+      <c r="E51" t="s">
+        <v>440</v>
+      </c>
+      <c r="F51" t="s">
+        <v>504</v>
+      </c>
+      <c r="G51" t="s">
+        <v>598</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>15767.63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" t="s">
+        <v>445</v>
+      </c>
+      <c r="F52" t="s">
+        <v>505</v>
+      </c>
+      <c r="G52" t="s">
+        <v>598</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>15048.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F53" t="s">
+        <v>506</v>
+      </c>
+      <c r="G53" t="s">
+        <v>598</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>15014.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54" t="s">
+        <v>447</v>
+      </c>
+      <c r="F54" t="s">
+        <v>507</v>
+      </c>
+      <c r="G54" t="s">
+        <v>598</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>14954.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>333</v>
+      </c>
+      <c r="E55" t="s">
+        <v>446</v>
+      </c>
+      <c r="F55" t="s">
+        <v>508</v>
+      </c>
+      <c r="G55" t="s">
+        <v>598</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>14930.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" t="s">
+        <v>448</v>
+      </c>
+      <c r="F56" t="s">
+        <v>509</v>
+      </c>
+      <c r="G56" t="s">
+        <v>598</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>14866.63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>335</v>
+      </c>
+      <c r="E57" t="s">
+        <v>446</v>
+      </c>
+      <c r="F57" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" t="s">
+        <v>598</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>14813.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" t="s">
+        <v>440</v>
+      </c>
+      <c r="F58" t="s">
+        <v>511</v>
+      </c>
+      <c r="G58" t="s">
+        <v>598</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>14809.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" t="s">
+        <v>337</v>
+      </c>
+      <c r="E59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F59" t="s">
+        <v>512</v>
+      </c>
+      <c r="G59" t="s">
+        <v>598</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>14790.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>338</v>
+      </c>
+      <c r="E60" t="s">
+        <v>449</v>
+      </c>
+      <c r="F60" t="s">
+        <v>513</v>
+      </c>
+      <c r="G60" t="s">
+        <v>598</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>14751.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" t="s">
+        <v>444</v>
+      </c>
+      <c r="F61" t="s">
+        <v>514</v>
+      </c>
+      <c r="G61" t="s">
+        <v>598</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>14473.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>340</v>
+      </c>
+      <c r="E62" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G62" t="s">
+        <v>598</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>14176.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>341</v>
+      </c>
+      <c r="E63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F63" t="s">
+        <v>516</v>
+      </c>
+      <c r="G63" t="s">
+        <v>598</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>12954.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G64" t="s">
+        <v>598</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>12936.26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>343</v>
+      </c>
+      <c r="E65" t="s">
+        <v>445</v>
+      </c>
+      <c r="F65" t="s">
+        <v>518</v>
+      </c>
+      <c r="G65" t="s">
+        <v>598</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>12038.49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s">
+        <v>344</v>
+      </c>
+      <c r="E66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>598</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>10073.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" t="s">
+        <v>448</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>598</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>10053.43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" t="s">
+        <v>445</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>598</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>10053.31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>347</v>
+      </c>
+      <c r="E69" t="s">
+        <v>451</v>
+      </c>
+      <c r="F69" t="s">
+        <v>522</v>
+      </c>
+      <c r="G69" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>10048.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" t="s">
+        <v>452</v>
+      </c>
+      <c r="F70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G70" t="s">
+        <v>598</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>10033.44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G71" t="s">
+        <v>598</v>
+      </c>
+      <c r="H71">
+        <v>30</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>10032.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" t="s">
+        <v>445</v>
+      </c>
+      <c r="F72" t="s">
+        <v>525</v>
+      </c>
+      <c r="G72" t="s">
+        <v>598</v>
+      </c>
+      <c r="H72">
+        <v>30</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>10023.98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" t="s">
+        <v>438</v>
+      </c>
+      <c r="F73" t="s">
+        <v>526</v>
+      </c>
+      <c r="G73" t="s">
+        <v>598</v>
+      </c>
+      <c r="H73">
+        <v>30</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>10017.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s">
+        <v>438</v>
+      </c>
+      <c r="F74" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74" t="s">
+        <v>598</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>10013.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
+        <v>353</v>
+      </c>
+      <c r="E75" t="s">
+        <v>445</v>
+      </c>
+      <c r="F75" t="s">
+        <v>528</v>
+      </c>
+      <c r="G75" t="s">
+        <v>598</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>10008.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" t="s">
+        <v>322</v>
+      </c>
+      <c r="E76" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" t="s">
+        <v>598</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>10000.94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77" t="s">
+        <v>447</v>
+      </c>
+      <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
+        <v>598</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>9995.860000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" t="s">
+        <v>441</v>
+      </c>
+      <c r="F78" t="s">
+        <v>531</v>
+      </c>
+      <c r="G78" t="s">
+        <v>598</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>9923.139999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" t="s">
+        <v>532</v>
+      </c>
+      <c r="G79" t="s">
+        <v>598</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>9914.940000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" t="s">
+        <v>445</v>
+      </c>
+      <c r="F80" t="s">
+        <v>533</v>
+      </c>
+      <c r="G80" t="s">
+        <v>598</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>9914.790000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" t="s">
+        <v>358</v>
+      </c>
+      <c r="E81" t="s">
+        <v>444</v>
+      </c>
+      <c r="F81" t="s">
+        <v>534</v>
+      </c>
+      <c r="G81" t="s">
+        <v>598</v>
+      </c>
+      <c r="H81">
+        <v>30</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>9874.379999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" t="s">
+        <v>444</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="s">
+        <v>598</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>9867.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" t="s">
+        <v>453</v>
+      </c>
+      <c r="F83" t="s">
+        <v>536</v>
+      </c>
+      <c r="G83" t="s">
+        <v>598</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>9831.280000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" t="s">
+        <v>443</v>
+      </c>
+      <c r="F84" t="s">
+        <v>537</v>
+      </c>
+      <c r="G84" t="s">
+        <v>598</v>
+      </c>
+      <c r="H84">
+        <v>30</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>9732.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" t="s">
+        <v>362</v>
+      </c>
+      <c r="E85" t="s">
+        <v>446</v>
+      </c>
+      <c r="F85" t="s">
+        <v>538</v>
+      </c>
+      <c r="G85" t="s">
+        <v>598</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>9550.959999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" t="s">
+        <v>453</v>
+      </c>
+      <c r="F86" t="s">
+        <v>539</v>
+      </c>
+      <c r="G86" t="s">
+        <v>598</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>9194.98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" t="s">
+        <v>439</v>
+      </c>
+      <c r="F87" t="s">
+        <v>540</v>
+      </c>
+      <c r="G87" t="s">
+        <v>598</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>9098.040000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" t="s">
+        <v>365</v>
+      </c>
+      <c r="E88" t="s">
+        <v>445</v>
+      </c>
+      <c r="F88" t="s">
+        <v>541</v>
+      </c>
+      <c r="G88" t="s">
+        <v>598</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>8989.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>96</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" t="s">
+        <v>366</v>
+      </c>
+      <c r="E89" t="s">
+        <v>445</v>
+      </c>
+      <c r="F89" t="s">
+        <v>542</v>
+      </c>
+      <c r="G89" t="s">
+        <v>598</v>
+      </c>
+      <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>8038.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" t="s">
+        <v>442</v>
+      </c>
+      <c r="F90" t="s">
+        <v>543</v>
+      </c>
+      <c r="G90" t="s">
+        <v>598</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>7977.21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" t="s">
+        <v>368</v>
+      </c>
+      <c r="E91" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" t="s">
+        <v>544</v>
+      </c>
+      <c r="G91" t="s">
+        <v>598</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>7040.94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E92" t="s">
+        <v>440</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+      <c r="G92" t="s">
+        <v>598</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>6943.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>446</v>
+      </c>
+      <c r="F93" t="s">
+        <v>546</v>
+      </c>
+      <c r="G93" t="s">
+        <v>598</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>6186.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" t="s">
+        <v>371</v>
+      </c>
+      <c r="E94" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" t="s">
+        <v>547</v>
+      </c>
+      <c r="G94" t="s">
+        <v>598</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>5781.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" t="s">
+        <v>372</v>
+      </c>
+      <c r="E95" t="s">
+        <v>445</v>
+      </c>
+      <c r="F95" t="s">
+        <v>548</v>
+      </c>
+      <c r="G95" t="s">
+        <v>598</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>5174.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" t="s">
+        <v>448</v>
+      </c>
+      <c r="F96" t="s">
+        <v>549</v>
+      </c>
+      <c r="G96" t="s">
+        <v>598</v>
+      </c>
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>5066.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" t="s">
+        <v>374</v>
+      </c>
+      <c r="E97" t="s">
+        <v>442</v>
+      </c>
+      <c r="F97" t="s">
+        <v>550</v>
+      </c>
+      <c r="G97" t="s">
+        <v>598</v>
+      </c>
+      <c r="H97">
+        <v>30</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>5029.65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" t="s">
+        <v>375</v>
+      </c>
+      <c r="E98" t="s">
+        <v>441</v>
+      </c>
+      <c r="F98" t="s">
+        <v>551</v>
+      </c>
+      <c r="G98" t="s">
+        <v>598</v>
+      </c>
+      <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>5027.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" t="s">
+        <v>438</v>
+      </c>
+      <c r="F99" t="s">
+        <v>552</v>
+      </c>
+      <c r="G99" t="s">
+        <v>598</v>
+      </c>
+      <c r="H99">
+        <v>30</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" t="s">
+        <v>377</v>
+      </c>
+      <c r="E100" t="s">
+        <v>445</v>
+      </c>
+      <c r="F100" t="s">
+        <v>553</v>
+      </c>
+      <c r="G100" t="s">
+        <v>598</v>
+      </c>
+      <c r="H100">
+        <v>30</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>5001.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>243</v>
+      </c>
+      <c r="D101" t="s">
+        <v>378</v>
+      </c>
+      <c r="E101" t="s">
+        <v>448</v>
+      </c>
+      <c r="F101" t="s">
+        <v>554</v>
+      </c>
+      <c r="G101" t="s">
+        <v>598</v>
+      </c>
+      <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>5000.65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102" t="s">
+        <v>444</v>
+      </c>
+      <c r="F102" t="s">
+        <v>555</v>
+      </c>
+      <c r="G102" t="s">
+        <v>598</v>
+      </c>
+      <c r="H102">
+        <v>30</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>4987.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103" t="s">
+        <v>441</v>
+      </c>
+      <c r="F103" t="s">
+        <v>556</v>
+      </c>
+      <c r="G103" t="s">
+        <v>598</v>
+      </c>
+      <c r="H103">
+        <v>30</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <v>4963.14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" t="s">
+        <v>381</v>
+      </c>
+      <c r="E104" t="s">
+        <v>441</v>
+      </c>
+      <c r="F104" t="s">
+        <v>557</v>
+      </c>
+      <c r="G104" t="s">
+        <v>598</v>
+      </c>
+      <c r="H104">
+        <v>30</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>4940.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" t="s">
+        <v>382</v>
+      </c>
+      <c r="E105" t="s">
+        <v>444</v>
+      </c>
+      <c r="F105" t="s">
+        <v>558</v>
+      </c>
+      <c r="G105" t="s">
+        <v>598</v>
+      </c>
+      <c r="H105">
+        <v>30</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>4859.41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
+        <v>383</v>
+      </c>
+      <c r="E106" t="s">
+        <v>443</v>
+      </c>
+      <c r="F106" t="s">
+        <v>559</v>
+      </c>
+      <c r="G106" t="s">
+        <v>598</v>
+      </c>
+      <c r="H106">
+        <v>30</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>4182.96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>249</v>
+      </c>
+      <c r="D107" t="s">
+        <v>384</v>
+      </c>
+      <c r="E107" t="s">
+        <v>445</v>
+      </c>
+      <c r="F107" t="s">
+        <v>560</v>
+      </c>
+      <c r="G107" t="s">
+        <v>598</v>
+      </c>
+      <c r="H107">
+        <v>30</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>2027.69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s">
+        <v>385</v>
+      </c>
+      <c r="E108" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" t="s">
+        <v>561</v>
+      </c>
+      <c r="G108" t="s">
+        <v>599</v>
+      </c>
+      <c r="H108">
+        <v>30</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>38913.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>420</v>
+      </c>
+      <c r="F109" t="s">
+        <v>562</v>
+      </c>
+      <c r="G109" t="s">
+        <v>599</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>29799.84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" t="s">
+        <v>387</v>
+      </c>
+      <c r="E110" t="s">
+        <v>421</v>
+      </c>
+      <c r="F110" t="s">
+        <v>563</v>
+      </c>
+      <c r="G110" t="s">
+        <v>599</v>
+      </c>
+      <c r="H110">
+        <v>30</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>29521.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" t="s">
+        <v>388</v>
+      </c>
+      <c r="E111" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" t="s">
+        <v>564</v>
+      </c>
+      <c r="G111" t="s">
+        <v>599</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>19468.39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112" t="s">
+        <v>389</v>
+      </c>
+      <c r="E112" t="s">
+        <v>424</v>
+      </c>
+      <c r="F112" t="s">
+        <v>565</v>
+      </c>
+      <c r="G112" t="s">
+        <v>599</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>19313.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" t="s">
+        <v>390</v>
+      </c>
+      <c r="E113" t="s">
+        <v>425</v>
+      </c>
+      <c r="F113" t="s">
+        <v>566</v>
+      </c>
+      <c r="G113" t="s">
+        <v>599</v>
+      </c>
+      <c r="H113">
+        <v>30</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>14702.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" t="s">
+        <v>391</v>
+      </c>
+      <c r="E114" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" t="s">
+        <v>567</v>
+      </c>
+      <c r="G114" t="s">
+        <v>599</v>
+      </c>
+      <c r="H114">
+        <v>30</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>14511.08</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" t="s">
+        <v>392</v>
+      </c>
+      <c r="E115" t="s">
+        <v>426</v>
+      </c>
+      <c r="F115" t="s">
+        <v>568</v>
+      </c>
+      <c r="G115" t="s">
+        <v>599</v>
+      </c>
+      <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>14331.23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" t="s">
+        <v>424</v>
+      </c>
+      <c r="F116" t="s">
+        <v>569</v>
+      </c>
+      <c r="G116" t="s">
+        <v>599</v>
+      </c>
+      <c r="H116">
+        <v>30</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>13564.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" t="s">
+        <v>424</v>
+      </c>
+      <c r="F117" t="s">
+        <v>570</v>
+      </c>
+      <c r="G117" t="s">
+        <v>599</v>
+      </c>
+      <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>13447.79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" t="s">
+        <v>395</v>
+      </c>
+      <c r="E118" t="s">
+        <v>420</v>
+      </c>
+      <c r="F118" t="s">
+        <v>571</v>
+      </c>
+      <c r="G118" t="s">
+        <v>599</v>
+      </c>
+      <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>12936.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" t="s">
+        <v>421</v>
+      </c>
+      <c r="F119" t="s">
+        <v>572</v>
+      </c>
+      <c r="G119" t="s">
+        <v>599</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>10050.17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" t="s">
+        <v>397</v>
+      </c>
+      <c r="E120" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" t="s">
+        <v>573</v>
+      </c>
+      <c r="G120" t="s">
+        <v>599</v>
+      </c>
+      <c r="H120">
+        <v>30</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>10049.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" t="s">
+        <v>398</v>
+      </c>
+      <c r="E121" t="s">
+        <v>424</v>
+      </c>
+      <c r="F121" t="s">
+        <v>574</v>
+      </c>
+      <c r="G121" t="s">
+        <v>599</v>
+      </c>
+      <c r="H121">
+        <v>30</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>10042.22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" t="s">
+        <v>575</v>
+      </c>
+      <c r="G122" t="s">
+        <v>599</v>
+      </c>
+      <c r="H122">
+        <v>30</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>10020.85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" t="s">
+        <v>400</v>
+      </c>
+      <c r="E123" t="s">
+        <v>424</v>
+      </c>
+      <c r="F123" t="s">
+        <v>576</v>
+      </c>
+      <c r="G123" t="s">
+        <v>599</v>
+      </c>
+      <c r="H123">
+        <v>30</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>10009.95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+      <c r="E124" t="s">
+        <v>425</v>
+      </c>
+      <c r="F124" t="s">
+        <v>577</v>
+      </c>
+      <c r="G124" t="s">
+        <v>599</v>
+      </c>
+      <c r="H124">
+        <v>30</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>9995.66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>259</v>
+      </c>
+      <c r="D125" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" t="s">
+        <v>422</v>
+      </c>
+      <c r="F125" t="s">
+        <v>578</v>
+      </c>
+      <c r="G125" t="s">
+        <v>599</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>9986.440000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" t="s">
+        <v>403</v>
+      </c>
+      <c r="E126" t="s">
+        <v>425</v>
+      </c>
+      <c r="F126" t="s">
+        <v>579</v>
+      </c>
+      <c r="G126" t="s">
+        <v>599</v>
+      </c>
+      <c r="H126">
+        <v>30</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>9979.190000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" t="s">
+        <v>424</v>
+      </c>
+      <c r="F127" t="s">
+        <v>580</v>
+      </c>
+      <c r="G127" t="s">
+        <v>599</v>
+      </c>
+      <c r="H127">
+        <v>30</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <v>9969.700000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" t="s">
+        <v>405</v>
+      </c>
+      <c r="E128" t="s">
+        <v>421</v>
+      </c>
+      <c r="F128" t="s">
+        <v>581</v>
+      </c>
+      <c r="G128" t="s">
+        <v>599</v>
+      </c>
+      <c r="H128">
+        <v>30</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>9969.059999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" t="s">
+        <v>422</v>
+      </c>
+      <c r="F129" t="s">
+        <v>582</v>
+      </c>
+      <c r="G129" t="s">
+        <v>599</v>
+      </c>
+      <c r="H129">
+        <v>30</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>9957.24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s">
+        <v>407</v>
+      </c>
+      <c r="E130" t="s">
+        <v>425</v>
+      </c>
+      <c r="F130" t="s">
+        <v>583</v>
+      </c>
+      <c r="G130" t="s">
+        <v>599</v>
+      </c>
+      <c r="H130">
+        <v>30</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>9925.389999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" t="s">
+        <v>421</v>
+      </c>
+      <c r="F131" t="s">
+        <v>584</v>
+      </c>
+      <c r="G131" t="s">
+        <v>599</v>
+      </c>
+      <c r="H131">
+        <v>30</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131">
+        <v>9060.200000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
         <v>139</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" t="s">
+        <v>454</v>
+      </c>
+      <c r="F132" t="s">
+        <v>585</v>
+      </c>
+      <c r="G132" t="s">
+        <v>599</v>
+      </c>
+      <c r="H132">
+        <v>30</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
+        <v>8157.62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" t="s">
+        <v>410</v>
+      </c>
+      <c r="E133" t="s">
+        <v>424</v>
+      </c>
+      <c r="F133" t="s">
+        <v>586</v>
+      </c>
+      <c r="G133" t="s">
+        <v>599</v>
+      </c>
+      <c r="H133">
+        <v>30</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <v>8046.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" t="s">
+        <v>411</v>
+      </c>
+      <c r="E134" t="s">
+        <v>426</v>
+      </c>
+      <c r="F134" t="s">
+        <v>587</v>
+      </c>
+      <c r="G134" t="s">
+        <v>599</v>
+      </c>
+      <c r="H134">
+        <v>30</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>6861.87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" t="s">
+        <v>412</v>
+      </c>
+      <c r="E135" t="s">
+        <v>451</v>
+      </c>
+      <c r="F135" t="s">
+        <v>588</v>
+      </c>
+      <c r="G135" t="s">
+        <v>599</v>
+      </c>
+      <c r="H135">
+        <v>30</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>6009.56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" t="s">
+        <v>413</v>
+      </c>
+      <c r="E136" t="s">
+        <v>424</v>
+      </c>
+      <c r="F136" t="s">
+        <v>589</v>
+      </c>
+      <c r="G136" t="s">
+        <v>599</v>
+      </c>
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>5900.11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" t="s">
+        <v>414</v>
+      </c>
+      <c r="E137" t="s">
+        <v>424</v>
+      </c>
+      <c r="F137" t="s">
+        <v>590</v>
+      </c>
+      <c r="G137" t="s">
+        <v>599</v>
+      </c>
+      <c r="H137">
+        <v>30</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>5767.44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
         <v>151</v>
       </c>
-      <c r="F45" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45">
-        <v>30</v>
-      </c>
-      <c r="I45">
+      <c r="D138" t="s">
+        <v>415</v>
+      </c>
+      <c r="E138" t="s">
+        <v>422</v>
+      </c>
+      <c r="F138" t="s">
+        <v>591</v>
+      </c>
+      <c r="G138" t="s">
+        <v>599</v>
+      </c>
+      <c r="H138">
+        <v>30</v>
+      </c>
+      <c r="I138">
         <v>3</v>
       </c>
-      <c r="J45">
-        <v>917.11</v>
+      <c r="J138">
+        <v>5046.11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" t="s">
+        <v>416</v>
+      </c>
+      <c r="E139" t="s">
+        <v>423</v>
+      </c>
+      <c r="F139" t="s">
+        <v>592</v>
+      </c>
+      <c r="G139" t="s">
+        <v>599</v>
+      </c>
+      <c r="H139">
+        <v>30</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>5046.06</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
+        <v>417</v>
+      </c>
+      <c r="E140" t="s">
+        <v>422</v>
+      </c>
+      <c r="F140" t="s">
+        <v>593</v>
+      </c>
+      <c r="G140" t="s">
+        <v>599</v>
+      </c>
+      <c r="H140">
+        <v>30</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>4888.95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" t="s">
+        <v>418</v>
+      </c>
+      <c r="E141" t="s">
+        <v>452</v>
+      </c>
+      <c r="F141" t="s">
+        <v>594</v>
+      </c>
+      <c r="G141" t="s">
+        <v>599</v>
+      </c>
+      <c r="H141">
+        <v>30</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <v>3791.92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>280</v>
+      </c>
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+      <c r="E142" t="s">
+        <v>422</v>
+      </c>
+      <c r="F142" t="s">
+        <v>595</v>
+      </c>
+      <c r="G142" t="s">
+        <v>599</v>
+      </c>
+      <c r="H142">
+        <v>30</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <v>3028.77</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="187">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,346 +43,538 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010511579</t>
-  </si>
-  <si>
-    <t>12010114180</t>
-  </si>
-  <si>
-    <t>12010507520</t>
-  </si>
-  <si>
-    <t>1201500479</t>
-  </si>
-  <si>
-    <t>12010124281</t>
-  </si>
-  <si>
-    <t>12010509190</t>
-  </si>
-  <si>
-    <t>12010139816</t>
-  </si>
-  <si>
-    <t>12010508882</t>
-  </si>
-  <si>
-    <t>90000005023</t>
-  </si>
-  <si>
-    <t>12010144629</t>
-  </si>
-  <si>
-    <t>12010127646</t>
-  </si>
-  <si>
-    <t>12010126415</t>
-  </si>
-  <si>
-    <t>12010126512</t>
-  </si>
-  <si>
-    <t>12010505777</t>
-  </si>
-  <si>
-    <t>12010506884</t>
-  </si>
-  <si>
-    <t>12010508986</t>
-  </si>
-  <si>
-    <t>12010146583</t>
-  </si>
-  <si>
-    <t>12010508273</t>
-  </si>
-  <si>
-    <t>12010507121</t>
-  </si>
-  <si>
-    <t>1201500860</t>
-  </si>
-  <si>
-    <t>12010505701</t>
-  </si>
-  <si>
-    <t>Ark Hospital Ltd</t>
-  </si>
-  <si>
-    <t>Ahmed Medicine Centre</t>
-  </si>
-  <si>
-    <t>Bismillah Pharmacy</t>
-  </si>
-  <si>
-    <t>Babul Pharmacy</t>
-  </si>
-  <si>
-    <t>Ashiyan Hospital Pharmacy</t>
-  </si>
-  <si>
-    <t>Nastrum Hospital</t>
-  </si>
-  <si>
-    <t>Nasir Drug House</t>
-  </si>
-  <si>
-    <t>Prime Bank Eye Hospital</t>
-  </si>
-  <si>
-    <t>Chader Hasi Pharmacy</t>
-  </si>
-  <si>
-    <t>Sikder Pharmacy</t>
-  </si>
-  <si>
-    <t>Rowshanara Pharmacy</t>
-  </si>
-  <si>
-    <t>Islamia Eye Hospital Instituti</t>
-  </si>
-  <si>
-    <t>Naza Pharma</t>
-  </si>
-  <si>
-    <t>Raz Pharmacy</t>
-  </si>
-  <si>
-    <t>Basundhara Eye Hospital And Re</t>
-  </si>
-  <si>
-    <t>Labaid Specialized Hospital</t>
-  </si>
-  <si>
-    <t>Medicine Point</t>
-  </si>
-  <si>
-    <t>Adorsho Dental Care</t>
-  </si>
-  <si>
-    <t>Tanaz Pharma</t>
-  </si>
-  <si>
-    <t>Ibn Sina Medical And Imaging C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near CNG PumpShah Kabir Mazar RoadUttarkhan Uttara          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House 71 1 Road 15 ANear Shankar Bus StandDhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infront of BMCHDhanmondiSanker                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">136 Elephant RoadCompath Diagnostic Centre                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashiyan GroupBorua BazarKhilkhet Dhaka                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Building RoadSector 06Uttara                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dour Near Police Station Uttara                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhanmondi R 15Dhaka                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amtola,Dakkhinkhan,Uttara                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97 2 SKRoad KachabazarPoolpar Rayer BazarDhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 3 Jahangir Alam RoadSunibir HousingDhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sher E Bangla NagarMonipuriparaDhaka 1215                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azampur Kancha BazarUttaraDhaka                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NilkhetRakib Plaza GoliDhaka                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigatola Natun Rasta Dhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plot 474 Block D BasundharaDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outdoor Pharmacy House 6 Road 4Dhanmondi Dhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">169 South Para MohakhaliDhaka                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razabari Chowrasta UttaraDhaka                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H - 35 ,R -1 A B-J Baridhara,Dhaka                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road 2 A House 51 DhanmondiDhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1030984    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1043357    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056361    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056317    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032333    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1031910    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057087    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032076    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056997    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056853    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1056717    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1032350    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-907271     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057890    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057689    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1057377    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1033704    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-909753     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1058855    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1058721    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1058618    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV120-1009424    </t>
-  </si>
-  <si>
-    <t>02 Sep 2020</t>
-  </si>
-  <si>
-    <t>17 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>03 Sep 2020</t>
-  </si>
-  <si>
-    <t>03 Oct 2020</t>
-  </si>
-  <si>
-    <t>22 Mar 2020</t>
+    <t>33091136125</t>
+  </si>
+  <si>
+    <t>33091002343</t>
+  </si>
+  <si>
+    <t>90000033574</t>
+  </si>
+  <si>
+    <t>33091134971</t>
+  </si>
+  <si>
+    <t>90000035383</t>
+  </si>
+  <si>
+    <t>33091101994</t>
+  </si>
+  <si>
+    <t>33091133927</t>
+  </si>
+  <si>
+    <t>33091132085</t>
+  </si>
+  <si>
+    <t>33091000136</t>
+  </si>
+  <si>
+    <t>33091134648</t>
+  </si>
+  <si>
+    <t>33091107436</t>
+  </si>
+  <si>
+    <t>33091107094</t>
+  </si>
+  <si>
+    <t>90000009359</t>
+  </si>
+  <si>
+    <t>33091135493</t>
+  </si>
+  <si>
+    <t>90000018203</t>
+  </si>
+  <si>
+    <t>33091100545</t>
+  </si>
+  <si>
+    <t>33091133234</t>
+  </si>
+  <si>
+    <t>33091135066</t>
+  </si>
+  <si>
+    <t>33091133591</t>
+  </si>
+  <si>
+    <t>90000031807</t>
+  </si>
+  <si>
+    <t>33091107619</t>
+  </si>
+  <si>
+    <t>33091102609</t>
+  </si>
+  <si>
+    <t>33091135319</t>
+  </si>
+  <si>
+    <t>33091100749</t>
+  </si>
+  <si>
+    <t>33091132161</t>
+  </si>
+  <si>
+    <t>33091133874</t>
+  </si>
+  <si>
+    <t>90000020026</t>
+  </si>
+  <si>
+    <t>33091135533</t>
+  </si>
+  <si>
+    <t>33091101432</t>
+  </si>
+  <si>
+    <t>90000031990</t>
+  </si>
+  <si>
+    <t>33091133345</t>
+  </si>
+  <si>
+    <t>33091136226</t>
+  </si>
+  <si>
+    <t>33091103610</t>
+  </si>
+  <si>
+    <t>33091133853</t>
+  </si>
+  <si>
+    <t>33091134716</t>
+  </si>
+  <si>
+    <t>90000004979</t>
+  </si>
+  <si>
+    <t>90000036221</t>
+  </si>
+  <si>
+    <t>Rahmot Pharmacy</t>
+  </si>
+  <si>
+    <t>Rubel Medical Store</t>
+  </si>
+  <si>
+    <t>Razzak Medical Store</t>
+  </si>
+  <si>
+    <t>Siddik Pharmacy 2</t>
+  </si>
+  <si>
+    <t>SHATHI MEDICAL STORE</t>
+  </si>
+  <si>
+    <t>Al Amin Pharmacy</t>
+  </si>
+  <si>
+    <t>Fahima Pharmacy</t>
+  </si>
+  <si>
+    <t>Star Pharma</t>
+  </si>
+  <si>
+    <t>Bogra Clinic</t>
+  </si>
+  <si>
+    <t>Tapon Pharmecy</t>
+  </si>
+  <si>
+    <t>Ashim Medical Store</t>
+  </si>
+  <si>
+    <t>Mehedi Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhai Bhai Pharmacy </t>
+  </si>
+  <si>
+    <t>Ataur Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah pharmacy</t>
+  </si>
+  <si>
+    <t>Shuvo Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Lion Pharmacy</t>
+  </si>
+  <si>
+    <t>Rakib Pharmacy</t>
+  </si>
+  <si>
+    <t>Amar Desh Medicine Corner</t>
+  </si>
+  <si>
+    <t>Zia Medical</t>
+  </si>
+  <si>
+    <t>Simul Medical Store</t>
+  </si>
+  <si>
+    <t>Shormila Pharmacy</t>
+  </si>
+  <si>
+    <t>Anik Pharmacy</t>
+  </si>
+  <si>
+    <t>Seba Aushadh Ghar</t>
+  </si>
+  <si>
+    <t>Sohag Pharmacy</t>
+  </si>
+  <si>
+    <t>Al Mumin Medical Store</t>
+  </si>
+  <si>
+    <t>Jahan Pharmacy</t>
+  </si>
+  <si>
+    <t>Mukti Ram Pharmacy</t>
+  </si>
+  <si>
+    <t>Shotota Medicine Corner</t>
+  </si>
+  <si>
+    <t>Bokul Medical Store</t>
+  </si>
+  <si>
+    <t>Omar Pharmacy</t>
+  </si>
+  <si>
+    <t>Mohona Pharmacy</t>
+  </si>
+  <si>
+    <t>Nahar Pharmacy</t>
+  </si>
+  <si>
+    <t>Master Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maa Pharmacy </t>
+  </si>
+  <si>
+    <t>Shaan Medicine &amp; Surgicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patgram Patgram                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulchari Bazar,Saghata                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouro Market Nagerswari Kurigram                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZIR BAZAR, GAIBANDHA                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhitorbond Bazar Nageswari                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakirhat Nagerswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap Medical More Rangpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalmonirhat Hospital Road Lalmonirhat                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazirhat Lalmonirhat                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghogodoho Bazar Kurigram Kurigram                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanerhat On tha way of Mothergonj Pirgonj                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligonj Bazar.Lalmonirhat.                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jatrapur Kurigara                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochubari hat,Bodargong                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilmari                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunaigach Ulipur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramkhana Nakargonj Burungamari Kurigram                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathgora Bazar Bamondanga Sundorgonj                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhap Medica More,Rangpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Anantapur Ulipur Kurigram                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Him Sorma Rajarhat                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raygong Nagesori                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burimari Bazar Patgram Lalmonirhat                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balarhat Hulashugonj                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nageswari Nageswari                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banglabazer,Sadar,Gaibandha                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upazila Road Fulbari                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puraton Anantopur Bazzar Ulipur Kurigram                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berakuty,Fulbari                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busterminal Rangpur Rangpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Dhap Rangpur                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapar hat Kaligonj                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatibandha Hat Hatibandha                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketlibari Hatibandha                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonarpara Bazar.Gaibandha.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near RNG Talukdar Hospital.Dhap                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473197     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472999     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-472789     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473152     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473048     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473202     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473561     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-458827     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473570     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473527     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473564     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473518     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473290     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474038     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474008     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474290     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474224     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-459120     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473858     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474118     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474112     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474110     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473980     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474235     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473815     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474116     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474009     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473958     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-473906     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474476     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474578     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474686     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474748     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474477     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV330-474432     </t>
   </si>
   <si>
     <t>04 Oct 2020</t>
   </si>
   <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
     <t>05 Sep 2020</t>
   </si>
   <si>
-    <t>24 Mar 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Aug 2020</t>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Sep 2020</t>
+  </si>
+  <si>
+    <t>07 Oct 2020</t>
   </si>
 </sst>
 </file>
@@ -740,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,28 +987,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>58910.58</v>
+        <v>42474.36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -827,28 +1019,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12923.44</v>
+        <v>14981.53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -859,19 +1051,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -880,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10462.34</v>
+        <v>9790.09</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -891,19 +1083,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -912,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9352.41</v>
+        <v>7897.58</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -923,28 +1115,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>40787.19</v>
+        <v>5889.85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -955,28 +1147,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>31273.8</v>
+        <v>5018.84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -987,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14963.12</v>
+        <v>5018.05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1019,28 +1211,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>9669.6</v>
+        <v>39990.62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1051,28 +1243,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>9208.07</v>
+        <v>16817</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1083,19 +1275,19 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1104,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>9167.65</v>
+        <v>14982.65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1115,19 +1307,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1136,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>8337.299999999999</v>
+        <v>14935.11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1144,31 +1336,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6081.69</v>
+        <v>11989.7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1176,31 +1368,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="H14">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>310</v>
+        <v>11957.35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1208,31 +1400,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>15105.36</v>
+        <v>5000.58</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1240,31 +1432,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>14345.9</v>
+        <v>4850.36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1272,22 +1464,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="H17">
         <v>30</v>
@@ -1296,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>8025.18</v>
+        <v>20031.47</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1304,31 +1496,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>39462.95</v>
+        <v>16875.75</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1336,31 +1528,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="H19">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>17579</v>
+        <v>15020.54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1368,31 +1560,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>17531.86</v>
+        <v>10864.06</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1400,31 +1592,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>5078.34</v>
+        <v>10031.24</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1432,31 +1624,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="H22">
         <v>30</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>3156.01</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1464,31 +1656,511 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>9992.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>9969.200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>9955.809999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>9946.780000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>9013.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>5107.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23">
-        <v>90</v>
-      </c>
-      <c r="I23">
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5011.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>5011.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>5004.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="J23">
-        <v>2675.35</v>
+      <c r="J33">
+        <v>15016.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>14993.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>11092.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>9918.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>7881.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>4967.97</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="240">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,538 +43,697 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>33091136125</t>
-  </si>
-  <si>
-    <t>33091002343</t>
-  </si>
-  <si>
-    <t>90000033574</t>
-  </si>
-  <si>
-    <t>33091134971</t>
-  </si>
-  <si>
-    <t>90000035383</t>
-  </si>
-  <si>
-    <t>33091101994</t>
-  </si>
-  <si>
-    <t>33091133927</t>
-  </si>
-  <si>
-    <t>33091132085</t>
-  </si>
-  <si>
-    <t>33091000136</t>
-  </si>
-  <si>
-    <t>33091134648</t>
-  </si>
-  <si>
-    <t>33091107436</t>
-  </si>
-  <si>
-    <t>33091107094</t>
-  </si>
-  <si>
-    <t>90000009359</t>
-  </si>
-  <si>
-    <t>33091135493</t>
-  </si>
-  <si>
-    <t>90000018203</t>
-  </si>
-  <si>
-    <t>33091100545</t>
-  </si>
-  <si>
-    <t>33091133234</t>
-  </si>
-  <si>
-    <t>33091135066</t>
-  </si>
-  <si>
-    <t>33091133591</t>
-  </si>
-  <si>
-    <t>90000031807</t>
-  </si>
-  <si>
-    <t>33091107619</t>
-  </si>
-  <si>
-    <t>33091102609</t>
-  </si>
-  <si>
-    <t>33091135319</t>
-  </si>
-  <si>
-    <t>33091100749</t>
-  </si>
-  <si>
-    <t>33091132161</t>
-  </si>
-  <si>
-    <t>33091133874</t>
-  </si>
-  <si>
-    <t>90000020026</t>
-  </si>
-  <si>
-    <t>33091135533</t>
-  </si>
-  <si>
-    <t>33091101432</t>
-  </si>
-  <si>
-    <t>90000031990</t>
-  </si>
-  <si>
-    <t>33091133345</t>
-  </si>
-  <si>
-    <t>33091136226</t>
-  </si>
-  <si>
-    <t>33091103610</t>
-  </si>
-  <si>
-    <t>33091133853</t>
-  </si>
-  <si>
-    <t>33091134716</t>
-  </si>
-  <si>
-    <t>90000004979</t>
-  </si>
-  <si>
-    <t>90000036221</t>
-  </si>
-  <si>
-    <t>Rahmot Pharmacy</t>
-  </si>
-  <si>
-    <t>Rubel Medical Store</t>
-  </si>
-  <si>
-    <t>Razzak Medical Store</t>
-  </si>
-  <si>
-    <t>Siddik Pharmacy 2</t>
-  </si>
-  <si>
-    <t>SHATHI MEDICAL STORE</t>
+    <t>51051100266</t>
+  </si>
+  <si>
+    <t>51051000211</t>
+  </si>
+  <si>
+    <t>51052000160</t>
+  </si>
+  <si>
+    <t>51052141755</t>
+  </si>
+  <si>
+    <t>51052100747</t>
+  </si>
+  <si>
+    <t>51052149935</t>
+  </si>
+  <si>
+    <t>51052108653</t>
+  </si>
+  <si>
+    <t>51051100181</t>
+  </si>
+  <si>
+    <t>51011136342</t>
+  </si>
+  <si>
+    <t>51052138351</t>
+  </si>
+  <si>
+    <t>51052149846</t>
+  </si>
+  <si>
+    <t>51051001574</t>
+  </si>
+  <si>
+    <t>51011119553</t>
+  </si>
+  <si>
+    <t>51052104170</t>
+  </si>
+  <si>
+    <t>51011110172</t>
+  </si>
+  <si>
+    <t>51052134724</t>
+  </si>
+  <si>
+    <t>51011136661</t>
+  </si>
+  <si>
+    <t>51052149103</t>
+  </si>
+  <si>
+    <t>51051001601</t>
+  </si>
+  <si>
+    <t>90000027866</t>
+  </si>
+  <si>
+    <t>51051004040</t>
+  </si>
+  <si>
+    <t>51051000054</t>
+  </si>
+  <si>
+    <t>51051003888</t>
+  </si>
+  <si>
+    <t>51052141281</t>
+  </si>
+  <si>
+    <t>51051100133</t>
+  </si>
+  <si>
+    <t>51051004238</t>
+  </si>
+  <si>
+    <t>51052103983</t>
+  </si>
+  <si>
+    <t>90000009998</t>
+  </si>
+  <si>
+    <t>51052138836</t>
+  </si>
+  <si>
+    <t>90000005236</t>
+  </si>
+  <si>
+    <t>51052103435</t>
+  </si>
+  <si>
+    <t>51011110761</t>
+  </si>
+  <si>
+    <t>51011110099</t>
+  </si>
+  <si>
+    <t>51011118972</t>
+  </si>
+  <si>
+    <t>51011110110</t>
+  </si>
+  <si>
+    <t>51011112076</t>
+  </si>
+  <si>
+    <t>51051001023</t>
+  </si>
+  <si>
+    <t>51011137308</t>
+  </si>
+  <si>
+    <t>51052139144</t>
+  </si>
+  <si>
+    <t>51052103417</t>
+  </si>
+  <si>
+    <t>51051200011</t>
+  </si>
+  <si>
+    <t>51051000940</t>
+  </si>
+  <si>
+    <t>90000017108</t>
+  </si>
+  <si>
+    <t>51051004050</t>
+  </si>
+  <si>
+    <t>51052100939</t>
+  </si>
+  <si>
+    <t>51011136552</t>
+  </si>
+  <si>
+    <t>51052101020</t>
+  </si>
+  <si>
+    <t>51052000264</t>
+  </si>
+  <si>
+    <t>51052101019</t>
+  </si>
+  <si>
+    <t>90000002581</t>
+  </si>
+  <si>
+    <t>Rahman Pharmacy</t>
+  </si>
+  <si>
+    <t>Chowdury Drug House</t>
+  </si>
+  <si>
+    <t>Mitali Medical Hall</t>
+  </si>
+  <si>
+    <t>Topical Drug House</t>
+  </si>
+  <si>
+    <t>Rashed Medical Hall</t>
+  </si>
+  <si>
+    <t>Debnath Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>New Medical Hall</t>
+  </si>
+  <si>
+    <t>Fatema Pharmacy</t>
+  </si>
+  <si>
+    <t>M S Sayed Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Amin Medical Hall</t>
+  </si>
+  <si>
+    <t>Morshed Pharmacy</t>
+  </si>
+  <si>
+    <t>Usha Pahrmacy</t>
+  </si>
+  <si>
+    <t>Nahar Medical Hall</t>
   </si>
   <si>
     <t>Al Amin Pharmacy</t>
   </si>
   <si>
-    <t>Fahima Pharmacy</t>
-  </si>
-  <si>
-    <t>Star Pharma</t>
-  </si>
-  <si>
-    <t>Bogra Clinic</t>
-  </si>
-  <si>
-    <t>Tapon Pharmecy</t>
-  </si>
-  <si>
-    <t>Ashim Medical Store</t>
-  </si>
-  <si>
-    <t>Mehedi Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhai Bhai Pharmacy </t>
-  </si>
-  <si>
-    <t>Ataur Pharmacy</t>
-  </si>
-  <si>
-    <t>Bismillah pharmacy</t>
-  </si>
-  <si>
-    <t>Shuvo Pharmacy</t>
-  </si>
-  <si>
-    <t>Maa Pharmacy</t>
-  </si>
-  <si>
-    <t>Lion Pharmacy</t>
-  </si>
-  <si>
-    <t>Rakib Pharmacy</t>
-  </si>
-  <si>
-    <t>Amar Desh Medicine Corner</t>
-  </si>
-  <si>
-    <t>Zia Medical</t>
-  </si>
-  <si>
-    <t>Simul Medical Store</t>
-  </si>
-  <si>
-    <t>Shormila Pharmacy</t>
-  </si>
-  <si>
-    <t>Anik Pharmacy</t>
-  </si>
-  <si>
-    <t>Seba Aushadh Ghar</t>
-  </si>
-  <si>
-    <t>Sohag Pharmacy</t>
-  </si>
-  <si>
-    <t>Al Mumin Medical Store</t>
-  </si>
-  <si>
-    <t>Jahan Pharmacy</t>
-  </si>
-  <si>
-    <t>Mukti Ram Pharmacy</t>
-  </si>
-  <si>
-    <t>Shotota Medicine Corner</t>
-  </si>
-  <si>
-    <t>Bokul Medical Store</t>
-  </si>
-  <si>
-    <t>Omar Pharmacy</t>
-  </si>
-  <si>
-    <t>Mohona Pharmacy</t>
-  </si>
-  <si>
-    <t>Nahar Pharmacy</t>
-  </si>
-  <si>
-    <t>Master Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maa Pharmacy </t>
-  </si>
-  <si>
-    <t>Shaan Medicine &amp; Surgicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patgram Patgram                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand Nageswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulchari Bazar,Saghata                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouro Market Nagerswari Kurigram                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAZIR BAZAR, GAIBANDHA                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhitorbond Bazar Nageswari                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakirhat Nagerswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhap Medical More Rangpur                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalmonirhat Hospital Road Lalmonirhat                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazirhat Lalmonirhat                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghogodoho Bazar Kurigram Kurigram                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanerhat On tha way of Mothergonj Pirgonj                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaligonj Bazar.Lalmonirhat.                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jatrapur Kurigara                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochubari hat,Bodargong                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilmari                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gunaigach Ulipur                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramkhana Nakargonj Burungamari Kurigram                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathgora Bazar Bamondanga Sundorgonj                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhap Medica More,Rangpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Anantapur Ulipur Kurigram                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Him Sorma Rajarhat                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raygong Nagesori                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burimari Bazar Patgram Lalmonirhat                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balarhat Hulashugonj                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nageswari Nageswari                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banglabazer,Sadar,Gaibandha                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upazila Road Fulbari                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puraton Anantopur Bazzar Ulipur Kurigram                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berakuty,Fulbari                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busterminal Rangpur Rangpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road Dhap Rangpur                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapar hat Kaligonj                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatibandha Hat Hatibandha                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketlibari Hatibandha                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonarpara Bazar.Gaibandha.                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near RNG Talukdar Hospital.Dhap                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK23                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK101                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK92                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473197     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-472999     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-472789     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473152     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473048     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473198     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473202     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473561     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-458827     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473570     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473527     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473655     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473564     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473518     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473290     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474038     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474008     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474290     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474224     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-459120     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473858     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474118     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474112     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474110     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473980     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474235     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473815     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474116     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474009     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473958     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-473906     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474476     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474578     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474686     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474748     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474477     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV330-474432     </t>
-  </si>
-  <si>
-    <t>04 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>05 Sep 2020</t>
-  </si>
-  <si>
-    <t>06 Oct 2020</t>
-  </si>
-  <si>
-    <t>06 Sep 2020</t>
-  </si>
-  <si>
-    <t>07 Oct 2020</t>
+    <t>Nupur Medical Hall</t>
+  </si>
+  <si>
+    <t>Mim Pharmacy</t>
+  </si>
+  <si>
+    <t>Surja Pharmacy</t>
+  </si>
+  <si>
+    <t>Rubina Drug House</t>
+  </si>
+  <si>
+    <t>Talukder Pharmacy</t>
+  </si>
+  <si>
+    <t>Sures Medical Hall</t>
+  </si>
+  <si>
+    <t>Rina Clinic</t>
+  </si>
+  <si>
+    <t>Milon Medical Hall</t>
+  </si>
+  <si>
+    <t>Makka Medical Hall</t>
+  </si>
+  <si>
+    <t>Imperial Medical Hall</t>
+  </si>
+  <si>
+    <t>Umesh Medical Hall</t>
+  </si>
+  <si>
+    <t>Bala Pharmacy</t>
+  </si>
+  <si>
+    <t>Rafi Medical Hall</t>
+  </si>
+  <si>
+    <t>Gazi Medical Hall</t>
+  </si>
+  <si>
+    <t>Salma Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Sharif Medical Hall</t>
+  </si>
+  <si>
+    <t>Janoni Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Jahid Pharmacy</t>
+  </si>
+  <si>
+    <t>Kamala Drug House</t>
+  </si>
+  <si>
+    <t>Maa Medicine Corner</t>
+  </si>
+  <si>
+    <t>Khokon Medical Hall</t>
+  </si>
+  <si>
+    <t>Ruhul Pharmacy</t>
+  </si>
+  <si>
+    <t>Jobayda Medical Hall</t>
+  </si>
+  <si>
+    <t>Khan Medical Hall</t>
+  </si>
+  <si>
+    <t>Save Health Hospital</t>
+  </si>
+  <si>
+    <t>Babul Pharmacy</t>
+  </si>
+  <si>
+    <t>Raj Medical Hall</t>
+  </si>
+  <si>
+    <t>Elin Medical Hall</t>
+  </si>
+  <si>
+    <t>Munna Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Santosh</t>
+  </si>
+  <si>
+    <t>Mridha Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Elias</t>
+  </si>
+  <si>
+    <t>Rahat Anowar Medical College H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Gate Sadar Road Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munsir Grage Bogura Road Barisal                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muguria Lalmohan Bhola                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boalia Bakerganj Barisal                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadium Market Bandh Road Barisal                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerganj Bakerganj Barisal                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koralia Manpura Bhola                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawkhali Pirojpur                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekerhat                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awar Bazar Banaripara Barisal                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razapur Bazar Rajapur Jhalokathi                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guthia Babuganj Barisal                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalirpar Tekerhat                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisharkandi Bazer Hartapara Banaripara                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puran Bazar Madaripur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakutia Barisal                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaleker Hat Kalkini Madaripur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paisherhat                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadar Road Bhola                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akota Bazar, Hijla, Barisal                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangla bazer Bhola                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarhat Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chander hat Pater hat                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiker pur Uzirpur Barisal                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agarpur Road Barisal                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rathan Pur Bhola                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sher E Bangla Banaripara Barisal                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natun Bazar Barisal                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akota Bazer Char Hizla Barisal                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majkazi Bazar                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalbunia Mehendiganj Barisal                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowdhury Clinic Madaripur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajoir Madaripur                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Emran Uzani Jalirpar                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milkvita Road Takerhat                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulfordi bazar Madaripur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Dr Uttam Kumar Roy Bouserhat Barisal                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Bazer Madaripur                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaserhat Charfassion                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohonganj Babuganj                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C o Dr Aminul Haque Sadar Road Barisal                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongalshikder Lalmohan Bhola                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dighirpar, Kawnia,Barisal.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangol Bazar Swarupkathi                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahutkathi Shekerpur Uzirpur Barisal                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D C Bridge Madaripur Madaripur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaluhar Bazar Swarupkathi Pirojpur                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joluar Bazar Swarupkhati                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Anowar Hossain Band Road Barisal                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG36                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606466     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606499     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606644     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606478     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606728     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606699     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607242     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607106     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607112     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607031     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607227     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606757     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607127     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607041     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-606992     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607208     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607269     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607834     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607774     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607635     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607630     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607787     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607760     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607462     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607634     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607629     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607464     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607731     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607412     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-607623     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608385     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608505     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608275     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608489     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608447     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608147     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608370     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608455     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608249     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-591616     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608317     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608141     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608479     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608307     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608476     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608381     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608376     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-608378     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV510-591654     </t>
+  </si>
+  <si>
+    <t>06 Dec 2020</t>
+  </si>
+  <si>
+    <t>07 Dec 2020</t>
+  </si>
+  <si>
+    <t>08 Dec 2020</t>
+  </si>
+  <si>
+    <t>09 Dec 2020</t>
+  </si>
+  <si>
+    <t>09 Nov 2020</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,19 +1146,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -1008,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>42474.36</v>
+        <v>10002.79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1019,19 +1178,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -1040,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14981.53</v>
+        <v>10001.85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1051,19 +1210,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -1072,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9790.09</v>
+        <v>9984.549999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1083,19 +1242,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1104,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7897.58</v>
+        <v>9786.17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1115,19 +1274,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1136,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5889.85</v>
+        <v>6974.23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1147,19 +1306,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1168,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5018.84</v>
+        <v>5004.29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1179,19 +1338,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1200,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5018.05</v>
+        <v>4994.58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1211,19 +1370,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -1232,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>39990.62</v>
+        <v>18764.18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1243,28 +1402,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>16817</v>
+        <v>14973.92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1275,19 +1434,19 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1296,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>14982.65</v>
+        <v>10094.38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1307,19 +1466,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1328,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>14935.11</v>
+        <v>10090.74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1339,19 +1498,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -1360,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>11989.7</v>
+        <v>10043.47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1371,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -1392,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>11957.35</v>
+        <v>9995.440000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1403,19 +1562,19 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1424,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5000.58</v>
+        <v>8672.82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1435,19 +1594,19 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -1456,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4850.36</v>
+        <v>8025.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1467,28 +1626,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>20031.47</v>
+        <v>7946.19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1499,28 +1658,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>16875.75</v>
+        <v>5510.38</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1531,28 +1690,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>15020.54</v>
+        <v>4943.96</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1563,19 +1722,19 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H20">
         <v>30</v>
@@ -1584,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>10864.06</v>
+        <v>74294.59</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1595,28 +1754,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21">
-        <v>10031.24</v>
+        <v>25009.7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1627,19 +1786,19 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -1648,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>10007</v>
+        <v>24948.22</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1659,19 +1818,19 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -1680,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>9992.16</v>
+        <v>14848.13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1691,19 +1850,19 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H24">
         <v>30</v>
@@ -1712,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>9969.200000000001</v>
+        <v>10030.97</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1723,19 +1882,19 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -1744,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>9955.809999999999</v>
+        <v>10017.63</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1755,19 +1914,19 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -1776,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <v>9946.780000000001</v>
+        <v>9994.969999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1787,19 +1946,19 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H27">
         <v>30</v>
@@ -1808,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>9013.01</v>
+        <v>9935.92</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1819,19 +1978,19 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H28">
         <v>30</v>
@@ -1840,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <v>6500</v>
+        <v>9691.940000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1851,19 +2010,19 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H29">
         <v>30</v>
@@ -1872,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>5107.57</v>
+        <v>6094.78</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1883,19 +2042,19 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -1904,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <v>5011.89</v>
+        <v>5027.75</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1915,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1936,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>5011.24</v>
+        <v>4502.4</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1947,19 +2106,19 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -1968,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="J32">
-        <v>5004.71</v>
+        <v>4168.97</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1979,19 +2138,19 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -2000,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>15016.11</v>
+        <v>24769.41</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2011,19 +2170,19 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -2032,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="J34">
-        <v>14993.38</v>
+        <v>19431.97</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2043,19 +2202,19 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H35">
         <v>30</v>
@@ -2064,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>11092.61</v>
+        <v>14950.63</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2075,19 +2234,19 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H36">
         <v>30</v>
@@ -2096,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="J36">
-        <v>9918.33</v>
+        <v>13018.59</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2107,19 +2266,19 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2128,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="J37">
-        <v>7881.71</v>
+        <v>10588.85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2139,19 +2298,19 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H38">
         <v>30</v>
@@ -2160,7 +2319,423 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>4967.97</v>
+        <v>10012.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>9997.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>9991.68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>9955.620000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42">
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>7418.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>5994.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>5052.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>4992.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>4991.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>4989.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>4864.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>4176.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>3397.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51">
+        <v>60</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>2482.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ClosedToMatured.xlsx
+++ b/Data/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,445 +43,526 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>43061100325</t>
-  </si>
-  <si>
-    <t>43061109649</t>
-  </si>
-  <si>
-    <t>90000005507</t>
-  </si>
-  <si>
-    <t>43061101921</t>
-  </si>
-  <si>
-    <t>90000032519</t>
+    <t>4201118260</t>
+  </si>
+  <si>
+    <t>43061101283</t>
+  </si>
+  <si>
+    <t>43061104050</t>
+  </si>
+  <si>
+    <t>43061104949</t>
+  </si>
+  <si>
+    <t>43061104603</t>
+  </si>
+  <si>
+    <t>43061000223</t>
+  </si>
+  <si>
+    <t>43061000237</t>
+  </si>
+  <si>
+    <t>43061001512</t>
+  </si>
+  <si>
+    <t>43061109327</t>
+  </si>
+  <si>
+    <t>43061000164</t>
+  </si>
+  <si>
+    <t>43061104425</t>
+  </si>
+  <si>
+    <t>43061104532</t>
+  </si>
+  <si>
+    <t>43061109541</t>
+  </si>
+  <si>
+    <t>43061100767</t>
+  </si>
+  <si>
+    <t>43061100472</t>
+  </si>
+  <si>
+    <t>43061109295</t>
   </si>
   <si>
     <t>43061109273</t>
   </si>
   <si>
-    <t>43061193123</t>
-  </si>
-  <si>
-    <t>43061100871</t>
-  </si>
-  <si>
-    <t>43061109323</t>
+    <t>43061000941</t>
+  </si>
+  <si>
+    <t>43061000935</t>
   </si>
   <si>
     <t>43061100221</t>
   </si>
   <si>
-    <t>43061100422</t>
-  </si>
-  <si>
-    <t>43061101004</t>
-  </si>
-  <si>
-    <t>43061000930</t>
-  </si>
-  <si>
-    <t>43061000680</t>
-  </si>
-  <si>
-    <t>43061000971</t>
-  </si>
-  <si>
-    <t>4301901016</t>
-  </si>
-  <si>
-    <t>4301901006</t>
-  </si>
-  <si>
-    <t>43061101283</t>
-  </si>
-  <si>
-    <t>4301901254</t>
-  </si>
-  <si>
-    <t>43061101227</t>
-  </si>
-  <si>
-    <t>43061104612</t>
-  </si>
-  <si>
-    <t>43061104883</t>
-  </si>
-  <si>
-    <t>43061109327</t>
-  </si>
-  <si>
-    <t>43061100497</t>
-  </si>
-  <si>
-    <t>43061000164</t>
-  </si>
-  <si>
-    <t>90000048032</t>
-  </si>
-  <si>
-    <t>43061100472</t>
-  </si>
-  <si>
-    <t>43061100245</t>
-  </si>
-  <si>
-    <t>43061110092</t>
-  </si>
-  <si>
-    <t>43061101458</t>
-  </si>
-  <si>
-    <t>43061100275</t>
-  </si>
-  <si>
-    <t>43061000156</t>
-  </si>
-  <si>
-    <t>Rabeya Pharmacy</t>
-  </si>
-  <si>
-    <t>Life Care Medicin Center</t>
-  </si>
-  <si>
-    <t>Dr. Taufiqur Rahman</t>
-  </si>
-  <si>
-    <t>Shakib Pharmacy</t>
-  </si>
-  <si>
-    <t>Akash Pharmacy</t>
+    <t>43061104849</t>
+  </si>
+  <si>
+    <t>43061100208</t>
+  </si>
+  <si>
+    <t>43061104566</t>
+  </si>
+  <si>
+    <t>43061101467</t>
+  </si>
+  <si>
+    <t>43061109971</t>
+  </si>
+  <si>
+    <t>43061105043</t>
+  </si>
+  <si>
+    <t>43061100201</t>
+  </si>
+  <si>
+    <t>42011138442</t>
+  </si>
+  <si>
+    <t>43061000991</t>
+  </si>
+  <si>
+    <t>90000032761</t>
+  </si>
+  <si>
+    <t>90000041193</t>
+  </si>
+  <si>
+    <t>43061109190</t>
+  </si>
+  <si>
+    <t>4201118276</t>
+  </si>
+  <si>
+    <t>43061001014</t>
+  </si>
+  <si>
+    <t>43061104178</t>
+  </si>
+  <si>
+    <t>43061101311</t>
+  </si>
+  <si>
+    <t>43061101349</t>
+  </si>
+  <si>
+    <t>Biswas Chikitshaloy</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Rina Pharmacy</t>
+  </si>
+  <si>
+    <t>Kohinur Nursing Home</t>
+  </si>
+  <si>
+    <t>Jasim Pharmacy</t>
+  </si>
+  <si>
+    <t>Hira Pharmacy</t>
+  </si>
+  <si>
+    <t>Yasin Pharmacy</t>
+  </si>
+  <si>
+    <t>Sri Krisna Pharmacy</t>
+  </si>
+  <si>
+    <t>Moon Pharmacy</t>
+  </si>
+  <si>
+    <t>Mondol Pharmacy</t>
+  </si>
+  <si>
+    <t>Haque Pharmacy</t>
+  </si>
+  <si>
+    <t>Tuhin Medical Hall</t>
+  </si>
+  <si>
+    <t>Bijoe Chekissalay</t>
+  </si>
+  <si>
+    <t>Rekha Pharmacy</t>
+  </si>
+  <si>
+    <t>Iqbal Pharmacy</t>
+  </si>
+  <si>
+    <t>Raife Pharmacy</t>
   </si>
   <si>
     <t>Dr Anup</t>
   </si>
   <si>
-    <t>Hasina Medical</t>
-  </si>
-  <si>
-    <t>Dianot Pharmacy</t>
-  </si>
-  <si>
-    <t>Biswas Pharmacy</t>
+    <t>Huda Medical</t>
+  </si>
+  <si>
+    <t>Babul Pharmacy</t>
   </si>
   <si>
     <t>Lisa Medical Hall</t>
   </si>
   <si>
-    <t>Bajlo Medical Holl</t>
-  </si>
-  <si>
-    <t>Tithi Sathi Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taher Clinic  One </t>
-  </si>
-  <si>
-    <t>Naz Pharmacy</t>
-  </si>
-  <si>
-    <t>Happy Look Pharmacy</t>
-  </si>
-  <si>
-    <t>Janata Pharmacy</t>
-  </si>
-  <si>
-    <t>Bangladesh Medical Hall</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Ashik Pharmacy</t>
-  </si>
-  <si>
-    <t>Shelidha Pharmacy</t>
-  </si>
-  <si>
-    <t>Jui Pharmacy</t>
-  </si>
-  <si>
-    <t>Rew Medicin Coner</t>
-  </si>
-  <si>
-    <t>Moon Pharmacy</t>
-  </si>
-  <si>
-    <t>Noor Medical</t>
-  </si>
-  <si>
-    <t>Mondol Pharmacy</t>
-  </si>
-  <si>
-    <t>Desh Clinic</t>
-  </si>
-  <si>
-    <t>Iqbal Pharmacy</t>
-  </si>
-  <si>
-    <t>Mohammadi Pha</t>
-  </si>
-  <si>
-    <t>Rohima Pharmacy</t>
-  </si>
-  <si>
-    <t>Mondol Drug House</t>
-  </si>
-  <si>
-    <t>Dr Alauddin</t>
-  </si>
-  <si>
-    <t>Salam Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darshona Bus Stand Darshona                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karpasdanga Bazar Dorshona Chuadanga                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinnanagar Bazar Chuadanga                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notun Bazar.Poradha Bazar Mirpur Kushtia                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopinatpur Bazar.Mohammadpur.                               </t>
+    <t>Maa Pharmacy</t>
+  </si>
+  <si>
+    <t>Harun Pharmacy</t>
+  </si>
+  <si>
+    <t>Tarik Medicine Corner</t>
+  </si>
+  <si>
+    <t>Popular Drug House</t>
+  </si>
+  <si>
+    <t>Shaha Medical Hall</t>
+  </si>
+  <si>
+    <t>Emon Medical hall</t>
+  </si>
+  <si>
+    <t>Al Hera Pharmacy</t>
+  </si>
+  <si>
+    <t>Ahmed Pharmacy</t>
+  </si>
+  <si>
+    <t>Riad Pharmacy</t>
+  </si>
+  <si>
+    <t>Lucky Pharmacy</t>
+  </si>
+  <si>
+    <t>Tarini Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Mojid Medical</t>
+  </si>
+  <si>
+    <t>Sweet Medical Hall</t>
+  </si>
+  <si>
+    <t>Khan Pharmacy</t>
+  </si>
+  <si>
+    <t>Sadia Medical Hall</t>
+  </si>
+  <si>
+    <t>Synthia Care Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maspara Bazar Pangsha Rajbari                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital GateDaulotpur Bheramara                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dangmorka Daulotpur                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokkhin Rail Gate Bheramara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi Road,Alamdanga                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Road Alamdanga                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horinarayanpurs lami university                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High RoadAlamdanga Alamdanga Chuadanga                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshona Bazar Darshona                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talsar Bazar Mohespur.Jhenaidha.                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagumpur bazar Darshna                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalicaron pur Jhenida                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puratan Hatkhala Jhenaidha                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumargara Kushtia                                           </t>
   </si>
   <si>
     <t xml:space="preserve">Jhawdia Bazar Bittipara Kushtia                             </t>
   </si>
   <si>
-    <t xml:space="preserve">Gangni Bazar Meherpur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhawra Bazar Shoilokupa                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shithaly Bazar Sailokupa                                    </t>
+    <t xml:space="preserve">Gangni Bazar Gangni Meherpur                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamundi Bazar                                               </t>
   </si>
   <si>
     <t xml:space="preserve">Gokulkhali Bazar Chuadanga                                  </t>
   </si>
   <si>
-    <t xml:space="preserve">Court Road Chuadanga                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamundi Bazar                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Road Meherpur                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benipur Kochua Shoilokupa                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G K Koloni Bheramara                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langolbond Bazar Magura                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langolbond Bazar Langbad magura  nd                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuchiamara Bheramara                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arpara Bazar Magura                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelidah Bazar Kumarkhali                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golapnogor Bheramara Bheramara                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dangmorka Bazar Dulatpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">High RoadAlamdanga Alamdanga Chuadanga                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kachari Bazar Alamdanga                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darshona Bazar Darshona                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hasibul Haque (Shanto).Choudanga                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi Road,Alamdanga                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halsa Bazar Poradah Mirpur                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurdah Bazar Jibonnagar                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand Jibonnagor Jibonnagar                             </t>
+    <t xml:space="preserve">Soilmary Bazar Meherpur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alokdia Bazar Chuadanga                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satbaria More Jhenidah Bus Stand Chuadanga                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near by Lalinsha Clinic.RC RC Road.Kushtia.                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grishnagor Bazar Dorshona chuadanga                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekra Bazar Shoilokupa                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damurhuda Chuadanga                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul Malek Plaza Pangsha Rajbari                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razzaque Super Market Kushtia                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterinary  Hospital Road Pangsha Rajbari                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silpo Kola  More,Pangsha Bazar                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B B road Jhenaidah Jhenaidah Jhenaidah                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh Hat Pangsha Rajbari                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College More kushtia                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavaniganj khoksha,Kushtia                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allardarga Bheramara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thana More Daulotpur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC35                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC13                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC53                                                        </t>
   </si>
   <si>
+    <t xml:space="preserve">KC52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC15                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC43                                                        </t>
+  </si>
+  <si>
     <t xml:space="preserve">KC62                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC15                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563752     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564015     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563654     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564076     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563540     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563893     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564170     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564138     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564150     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564362     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564315     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564310     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564437     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564090     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564549     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564796     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564785     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564551     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564820     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564656     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564654     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-564679     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565372     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565027     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565125     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565090     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565259     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565123     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565228     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565235     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565118     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-565223     </t>
-  </si>
-  <si>
-    <t>14 Dec 2020</t>
-  </si>
-  <si>
-    <t>15 Dec 2020</t>
-  </si>
-  <si>
-    <t>16 Dec 2020</t>
-  </si>
-  <si>
-    <t>17 Dec 2020</t>
+    <t xml:space="preserve">KC81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577387     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577237     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577274     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577382     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578083     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577905     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578078     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578082     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577940     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577872     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577723     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577729     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578052     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577887     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577840     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577898     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577789     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578250     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578399     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578240     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578237     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578174     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578443     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578122     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578211     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578114     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578463     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578822     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578757     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578922     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578956     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578811     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578733     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578618     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578608     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578731     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-578813     </t>
+  </si>
+  <si>
+    <t>17 Jan 2021</t>
+  </si>
+  <si>
+    <t>18 Jan 2021</t>
+  </si>
+  <si>
+    <t>19 Jan 2021</t>
+  </si>
+  <si>
+    <t>20 Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,19 +975,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -915,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11949.18</v>
+        <v>20046.68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -926,19 +1007,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -947,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5930.94</v>
+        <v>15079.75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -958,19 +1039,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -979,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5280.4</v>
+        <v>11034.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -990,19 +1071,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -1011,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5034.61</v>
+        <v>10296.37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1022,19 +1103,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -1043,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4942.21</v>
+        <v>1000.32</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1054,28 +1135,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>3000</v>
+        <v>78439.44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1086,19 +1167,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -1107,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>21020.3</v>
+        <v>59941.99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1118,19 +1199,19 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -1139,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>14978.47</v>
+        <v>44809.9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1150,19 +1231,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1171,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>10059.72</v>
+        <v>39867.12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1182,19 +1263,19 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H11">
         <v>30</v>
@@ -1203,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>10016.07</v>
+        <v>33540.48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1214,19 +1295,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -1235,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>9982.530000000001</v>
+        <v>22950.78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1246,19 +1327,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H13">
         <v>30</v>
@@ -1267,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>9468.83</v>
+        <v>19476.25</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1275,22 +1356,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -1299,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>8082.77</v>
+        <v>18279.13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1307,22 +1388,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1331,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6112.29</v>
+        <v>18021.04</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1339,31 +1420,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>15124.03</v>
+        <v>15280.02</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1371,31 +1452,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>15085.51</v>
+        <v>15083.56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1403,31 +1484,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>12093.7</v>
+        <v>10132.16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1435,31 +1516,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H19">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>12005.57</v>
+        <v>4938.71</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1467,31 +1548,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>9783.790000000001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1499,22 +1580,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -1523,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>7609.56</v>
+        <v>50061.24</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1531,22 +1612,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -1555,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>5235.32</v>
+        <v>29439.7</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1563,22 +1644,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -1587,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>4193.5</v>
+        <v>10114.93</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1595,31 +1676,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H24">
         <v>30</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>39969.52</v>
+        <v>9238.34</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1627,31 +1708,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H25">
         <v>30</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>25041.41</v>
+        <v>8537.75</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1659,31 +1740,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H26">
         <v>30</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>19617.38</v>
+        <v>7911.83</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1691,31 +1772,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H27">
         <v>30</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>15629.26</v>
+        <v>6570.95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1723,31 +1804,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>15032.56</v>
+        <v>6060.69</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1755,31 +1836,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H29">
         <v>30</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>11949.83</v>
+        <v>5092.26</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1787,31 +1868,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H30">
         <v>30</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>10102.64</v>
+        <v>3102.22</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1819,22 +1900,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1843,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>9915.33</v>
+        <v>59963.7</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1851,22 +1932,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -1875,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>9800.209999999999</v>
+        <v>34995.4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1883,22 +1964,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1907,7 +1988,231 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>5962.35</v>
+        <v>29356.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>28863.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>27488.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>20086.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>14060.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>10636.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>8258.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>5374.32</v>
       </c>
     </row>
   </sheetData>
